--- a/2024AM/Data/INPUT/Macro and elasticities/Working Input Elasticities.xlsx
+++ b/2024AM/Data/INPUT/Macro and elasticities/Working Input Elasticities.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9f3d9369a3ab00f0/WBG/ETIRI/Projects/FY25/FY25 - SAR MPO AM24/BGD-MPO-Microsimulation/2024AM/Data/INPUT/Macro and elasticities/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="8_{45326A06-CE48-1743-A675-B48C01BE7FB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{06C7A4EB-F440-A14E-82FE-B6D802C9246C}"/>
+  <xr:revisionPtr revIDLastSave="22" documentId="8_{45326A06-CE48-1743-A675-B48C01BE7FB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AF8A9F92-43DA-9B44-9457-68660971B56E}"/>
   <bookViews>
-    <workbookView xWindow="11580" yWindow="5400" windowWidth="28040" windowHeight="17440" activeTab="1" xr2:uid="{4AE77DD1-A216-4C4F-96D4-008D1E879A99}"/>
+    <workbookView xWindow="11580" yWindow="5400" windowWidth="28040" windowHeight="22700" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="input_setup" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <sheet name="input_labor" sheetId="4" r:id="rId4"/>
     <sheet name="input_nonlabor" sheetId="5" r:id="rId5"/>
     <sheet name="input_pop_wdi" sheetId="6" r:id="rId6"/>
+    <sheet name="input-labor-hies" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="110">
   <si>
     <t>type_estimation</t>
   </si>
@@ -155,6 +156,222 @@
   </si>
   <si>
     <t>total</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>BGD</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>variable</t>
+  </si>
+  <si>
+    <t>poptotal</t>
+  </si>
+  <si>
+    <t>pop0014</t>
+  </si>
+  <si>
+    <t>pop1564</t>
+  </si>
+  <si>
+    <t>pop65up</t>
+  </si>
+  <si>
+    <t>lstatus3_1564</t>
+  </si>
+  <si>
+    <t>lstatus2_1564</t>
+  </si>
+  <si>
+    <t>lstatus1_1564</t>
+  </si>
+  <si>
+    <t>lstatus12_1564</t>
+  </si>
+  <si>
+    <t>lstatus1_s0_a1</t>
+  </si>
+  <si>
+    <t>lstatus1_s0_a2</t>
+  </si>
+  <si>
+    <t>lstatus1_s0_a3</t>
+  </si>
+  <si>
+    <t>lstatus1_s0_a4</t>
+  </si>
+  <si>
+    <t>lstatus1_s0_a5</t>
+  </si>
+  <si>
+    <t>lstatus1_s0_a6</t>
+  </si>
+  <si>
+    <t>lstatus1_s1_a1</t>
+  </si>
+  <si>
+    <t>lstatus1_s1_a2</t>
+  </si>
+  <si>
+    <t>lstatus1_s1_a3</t>
+  </si>
+  <si>
+    <t>lstatus1_s1_a4</t>
+  </si>
+  <si>
+    <t>lstatus1_s1_a5</t>
+  </si>
+  <si>
+    <t>lstatus1_s1_a6</t>
+  </si>
+  <si>
+    <t>iptotal</t>
+  </si>
+  <si>
+    <t>ip_s0_a1</t>
+  </si>
+  <si>
+    <t>ip_s0_a2</t>
+  </si>
+  <si>
+    <t>ip_s0_a3</t>
+  </si>
+  <si>
+    <t>ip_s0_a4</t>
+  </si>
+  <si>
+    <t>ip_s0_a5</t>
+  </si>
+  <si>
+    <t>ip_s0_a6</t>
+  </si>
+  <si>
+    <t>ip_s1_a1</t>
+  </si>
+  <si>
+    <t>ip_s1_a2</t>
+  </si>
+  <si>
+    <t>ip_s1_a3</t>
+  </si>
+  <si>
+    <t>ip_s1_a4</t>
+  </si>
+  <si>
+    <t>ip_s1_a5</t>
+  </si>
+  <si>
+    <t>ip_s1_a6</t>
+  </si>
+  <si>
+    <t>Indicator</t>
+  </si>
+  <si>
+    <t>Population, total</t>
+  </si>
+  <si>
+    <t>Population, 00-14</t>
+  </si>
+  <si>
+    <t>Population, 15-64</t>
+  </si>
+  <si>
+    <t>Population, 65+</t>
+  </si>
+  <si>
+    <t>Not in Labor Force</t>
+  </si>
+  <si>
+    <t>Unemployed</t>
+  </si>
+  <si>
+    <t>Employed</t>
+  </si>
+  <si>
+    <t>Labor Foce</t>
+  </si>
+  <si>
+    <t>Workers Agriculture Unskilled</t>
+  </si>
+  <si>
+    <t>Workers Construction Unskilled</t>
+  </si>
+  <si>
+    <t>Workers Rest of Industry Unskilled</t>
+  </si>
+  <si>
+    <t>Workers Transport Unskilled</t>
+  </si>
+  <si>
+    <t>Workers Finance Unskilled</t>
+  </si>
+  <si>
+    <t>Workers Rest of Services Unskilled</t>
+  </si>
+  <si>
+    <t>Workers Agriculture Skilled</t>
+  </si>
+  <si>
+    <t>Workers Construction Skilled</t>
+  </si>
+  <si>
+    <t>Workers Rest of Industry Skilled</t>
+  </si>
+  <si>
+    <t>Workers Transport Skilled</t>
+  </si>
+  <si>
+    <t>Workers Finance Skilled</t>
+  </si>
+  <si>
+    <t>Workers Rest of Services Skilled</t>
+  </si>
+  <si>
+    <t>IP All</t>
+  </si>
+  <si>
+    <t>Mean income in Agriculture Unskilled</t>
+  </si>
+  <si>
+    <t>Mean income in Construction Unskilled</t>
+  </si>
+  <si>
+    <t>Mean income in Rest of Industry Unskille</t>
+  </si>
+  <si>
+    <t>Mean income in Transport Unskilled</t>
+  </si>
+  <si>
+    <t>Mean income in Finance Unskilled</t>
+  </si>
+  <si>
+    <t>Mean income in Rest of Services Unskille</t>
+  </si>
+  <si>
+    <t>Mean income in Agriculture Skilled</t>
+  </si>
+  <si>
+    <t>Mean income in Construction Skilled</t>
+  </si>
+  <si>
+    <t>Mean income in Rest of Industry Skilled</t>
+  </si>
+  <si>
+    <t>Mean income in Transport Skilled</t>
+  </si>
+  <si>
+    <t>Mean income in Finance Skilled</t>
+  </si>
+  <si>
+    <t>Mean income in Rest of Services Skilled</t>
+  </si>
+  <si>
+    <t>Value</t>
   </si>
 </sst>
 </file>
@@ -178,7 +395,14 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left/>
       <right/>
@@ -190,9 +414,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -588,7 +814,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{269571F4-257F-754B-B70E-B8CEC075A1BC}">
   <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
+    <sheetView zoomScale="150" workbookViewId="0">
       <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
@@ -916,4 +1142,609 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <dimension ref="A1:F34"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="200" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="4" max="4" width="34.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.5" customWidth="1"/>
+    <col min="6" max="6" width="10.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D1" t="s">
+        <v>75</v>
+      </c>
+      <c r="E1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B2" s="2">
+        <v>2022</v>
+      </c>
+      <c r="C2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D2" t="s">
+        <v>76</v>
+      </c>
+      <c r="E2" s="2">
+        <v>165687184</v>
+      </c>
+      <c r="F2" s="3"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B3" s="2">
+        <v>2022</v>
+      </c>
+      <c r="C3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D3" t="s">
+        <v>77</v>
+      </c>
+      <c r="E3" s="2">
+        <v>46586420</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B4" s="2">
+        <v>2022</v>
+      </c>
+      <c r="C4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D4" t="s">
+        <v>78</v>
+      </c>
+      <c r="E4" s="2">
+        <v>108849192</v>
+      </c>
+      <c r="F4" s="3">
+        <f>SUM(E6:E8)</f>
+        <v>108849193.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B5" s="2">
+        <v>2022</v>
+      </c>
+      <c r="C5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D5" t="s">
+        <v>79</v>
+      </c>
+      <c r="E5" s="2">
+        <v>10251569</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>39</v>
+      </c>
+      <c r="B6" s="2">
+        <v>2022</v>
+      </c>
+      <c r="C6" t="s">
+        <v>46</v>
+      </c>
+      <c r="D6" t="s">
+        <v>80</v>
+      </c>
+      <c r="E6" s="2">
+        <v>56894816</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>39</v>
+      </c>
+      <c r="B7" s="2">
+        <v>2022</v>
+      </c>
+      <c r="C7" t="s">
+        <v>47</v>
+      </c>
+      <c r="D7" t="s">
+        <v>81</v>
+      </c>
+      <c r="E7" s="2">
+        <v>2431221.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>39</v>
+      </c>
+      <c r="B8" s="2">
+        <v>2022</v>
+      </c>
+      <c r="C8" t="s">
+        <v>48</v>
+      </c>
+      <c r="D8" t="s">
+        <v>82</v>
+      </c>
+      <c r="E8" s="2">
+        <v>49523156</v>
+      </c>
+      <c r="F8" s="3"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>39</v>
+      </c>
+      <c r="B9" s="2">
+        <v>2022</v>
+      </c>
+      <c r="C9" t="s">
+        <v>49</v>
+      </c>
+      <c r="D9" t="s">
+        <v>83</v>
+      </c>
+      <c r="E9" s="2">
+        <v>51954376</v>
+      </c>
+      <c r="F9" s="3"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>39</v>
+      </c>
+      <c r="B10" s="2">
+        <v>2022</v>
+      </c>
+      <c r="C10" t="s">
+        <v>50</v>
+      </c>
+      <c r="D10" t="s">
+        <v>84</v>
+      </c>
+      <c r="E10" s="2">
+        <v>14996615</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>39</v>
+      </c>
+      <c r="B11" s="2">
+        <v>2022</v>
+      </c>
+      <c r="C11" t="s">
+        <v>51</v>
+      </c>
+      <c r="D11" t="s">
+        <v>85</v>
+      </c>
+      <c r="E11" s="2">
+        <v>2544057.5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>39</v>
+      </c>
+      <c r="B12" s="2">
+        <v>2022</v>
+      </c>
+      <c r="C12" t="s">
+        <v>52</v>
+      </c>
+      <c r="D12" t="s">
+        <v>86</v>
+      </c>
+      <c r="E12" s="2">
+        <v>7846010.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>39</v>
+      </c>
+      <c r="B13" s="2">
+        <v>2022</v>
+      </c>
+      <c r="C13" t="s">
+        <v>53</v>
+      </c>
+      <c r="D13" t="s">
+        <v>87</v>
+      </c>
+      <c r="E13" s="2">
+        <v>4113829.25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>39</v>
+      </c>
+      <c r="B14" s="2">
+        <v>2022</v>
+      </c>
+      <c r="C14" t="s">
+        <v>54</v>
+      </c>
+      <c r="D14" t="s">
+        <v>88</v>
+      </c>
+      <c r="E14" s="2">
+        <v>2931368.25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>39</v>
+      </c>
+      <c r="B15" s="2">
+        <v>2022</v>
+      </c>
+      <c r="C15" t="s">
+        <v>55</v>
+      </c>
+      <c r="D15" t="s">
+        <v>89</v>
+      </c>
+      <c r="E15" s="2">
+        <v>2609078.75</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>39</v>
+      </c>
+      <c r="B16" s="2">
+        <v>2022</v>
+      </c>
+      <c r="C16" t="s">
+        <v>56</v>
+      </c>
+      <c r="D16" t="s">
+        <v>90</v>
+      </c>
+      <c r="E16" s="2">
+        <v>1030150.125</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>39</v>
+      </c>
+      <c r="B17" s="2">
+        <v>2022</v>
+      </c>
+      <c r="C17" t="s">
+        <v>57</v>
+      </c>
+      <c r="D17" t="s">
+        <v>91</v>
+      </c>
+      <c r="E17" s="2">
+        <v>1354453.125</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>39</v>
+      </c>
+      <c r="B18" s="2">
+        <v>2022</v>
+      </c>
+      <c r="C18" t="s">
+        <v>58</v>
+      </c>
+      <c r="D18" t="s">
+        <v>92</v>
+      </c>
+      <c r="E18" s="2">
+        <v>4036646.25</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>39</v>
+      </c>
+      <c r="B19" s="2">
+        <v>2022</v>
+      </c>
+      <c r="C19" t="s">
+        <v>59</v>
+      </c>
+      <c r="D19" t="s">
+        <v>93</v>
+      </c>
+      <c r="E19" s="2">
+        <v>436373.875</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>39</v>
+      </c>
+      <c r="B20" s="2">
+        <v>2022</v>
+      </c>
+      <c r="C20" t="s">
+        <v>60</v>
+      </c>
+      <c r="D20" t="s">
+        <v>94</v>
+      </c>
+      <c r="E20" s="2">
+        <v>3733049.75</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>39</v>
+      </c>
+      <c r="B21" s="2">
+        <v>2022</v>
+      </c>
+      <c r="C21" t="s">
+        <v>61</v>
+      </c>
+      <c r="D21" t="s">
+        <v>95</v>
+      </c>
+      <c r="E21" s="2">
+        <v>3870213.5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>39</v>
+      </c>
+      <c r="B22" s="2">
+        <v>2022</v>
+      </c>
+      <c r="C22" t="s">
+        <v>62</v>
+      </c>
+      <c r="D22" t="s">
+        <v>96</v>
+      </c>
+      <c r="E22" s="2">
+        <v>16.301263809204102</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>39</v>
+      </c>
+      <c r="B23" s="2">
+        <v>2022</v>
+      </c>
+      <c r="C23" t="s">
+        <v>63</v>
+      </c>
+      <c r="D23" t="s">
+        <v>97</v>
+      </c>
+      <c r="E23" s="2">
+        <v>8.361358642578125</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>39</v>
+      </c>
+      <c r="B24" s="2">
+        <v>2022</v>
+      </c>
+      <c r="C24" t="s">
+        <v>64</v>
+      </c>
+      <c r="D24" t="s">
+        <v>98</v>
+      </c>
+      <c r="E24" s="2">
+        <v>10.658834457397461</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>39</v>
+      </c>
+      <c r="B25" s="2">
+        <v>2022</v>
+      </c>
+      <c r="C25" t="s">
+        <v>65</v>
+      </c>
+      <c r="D25" t="s">
+        <v>99</v>
+      </c>
+      <c r="E25" s="2">
+        <v>17.275327682495117</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>39</v>
+      </c>
+      <c r="B26" s="2">
+        <v>2022</v>
+      </c>
+      <c r="C26" t="s">
+        <v>66</v>
+      </c>
+      <c r="D26" t="s">
+        <v>100</v>
+      </c>
+      <c r="E26" s="2">
+        <v>12.662323951721191</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>39</v>
+      </c>
+      <c r="B27" s="2">
+        <v>2022</v>
+      </c>
+      <c r="C27" t="s">
+        <v>67</v>
+      </c>
+      <c r="D27" t="s">
+        <v>101</v>
+      </c>
+      <c r="E27" s="2">
+        <v>13.721147537231445</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>39</v>
+      </c>
+      <c r="B28" s="2">
+        <v>2022</v>
+      </c>
+      <c r="C28" t="s">
+        <v>68</v>
+      </c>
+      <c r="D28" t="s">
+        <v>102</v>
+      </c>
+      <c r="E28" s="2">
+        <v>12.1837158203125</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>39</v>
+      </c>
+      <c r="B29" s="2">
+        <v>2022</v>
+      </c>
+      <c r="C29" t="s">
+        <v>69</v>
+      </c>
+      <c r="D29" t="s">
+        <v>103</v>
+      </c>
+      <c r="E29" s="2">
+        <v>35.935928344726562</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>39</v>
+      </c>
+      <c r="B30" s="2">
+        <v>2022</v>
+      </c>
+      <c r="C30" t="s">
+        <v>70</v>
+      </c>
+      <c r="D30" t="s">
+        <v>104</v>
+      </c>
+      <c r="E30" s="2">
+        <v>30.482030868530273</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>39</v>
+      </c>
+      <c r="B31" s="2">
+        <v>2022</v>
+      </c>
+      <c r="C31" t="s">
+        <v>71</v>
+      </c>
+      <c r="D31" t="s">
+        <v>105</v>
+      </c>
+      <c r="E31" s="2">
+        <v>20.005949020385742</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>39</v>
+      </c>
+      <c r="B32" s="2">
+        <v>2022</v>
+      </c>
+      <c r="C32" t="s">
+        <v>72</v>
+      </c>
+      <c r="D32" t="s">
+        <v>106</v>
+      </c>
+      <c r="E32" s="2">
+        <v>31.673978805541992</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>39</v>
+      </c>
+      <c r="B33" s="2">
+        <v>2022</v>
+      </c>
+      <c r="C33" t="s">
+        <v>73</v>
+      </c>
+      <c r="D33" t="s">
+        <v>107</v>
+      </c>
+      <c r="E33" s="2">
+        <v>35.630630493164062</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>39</v>
+      </c>
+      <c r="B34" s="2">
+        <v>2022</v>
+      </c>
+      <c r="C34" t="s">
+        <v>74</v>
+      </c>
+      <c r="D34" t="s">
+        <v>108</v>
+      </c>
+      <c r="E34" s="2">
+        <v>20.934955596923828</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/2024AM/Data/INPUT/Macro and elasticities/Working Input Elasticities.xlsx
+++ b/2024AM/Data/INPUT/Macro and elasticities/Working Input Elasticities.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10714"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,20 +8,26 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9f3d9369a3ab00f0/WBG/ETIRI/Projects/FY25/FY25 - SAR MPO AM24/BGD-MPO-Microsimulation/2024AM/Data/INPUT/Macro and elasticities/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="22" documentId="8_{45326A06-CE48-1743-A675-B48C01BE7FB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AF8A9F92-43DA-9B44-9457-68660971B56E}"/>
+  <xr:revisionPtr revIDLastSave="116" documentId="8_{45326A06-CE48-1743-A675-B48C01BE7FB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D2B5FC89-9CD0-BD45-9668-CD3F3B67CD1D}"/>
   <bookViews>
-    <workbookView xWindow="11580" yWindow="5400" windowWidth="28040" windowHeight="22700" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4900" yWindow="2100" windowWidth="51540" windowHeight="27360"/>
   </bookViews>
   <sheets>
-    <sheet name="input_setup" sheetId="1" r:id="rId1"/>
-    <sheet name="input_gdp" sheetId="3" r:id="rId2"/>
-    <sheet name="input_labor_incomes" sheetId="2" r:id="rId3"/>
-    <sheet name="input_labor" sheetId="4" r:id="rId4"/>
-    <sheet name="input_nonlabor" sheetId="5" r:id="rId5"/>
-    <sheet name="input_pop_wdi" sheetId="6" r:id="rId6"/>
-    <sheet name="input-labor-hies" sheetId="7" r:id="rId7"/>
+    <sheet name="Sheet2" sheetId="10" r:id="rId1"/>
+    <sheet name="input_setup" sheetId="1" r:id="rId2"/>
+    <sheet name="input_gdp" sheetId="3" r:id="rId3"/>
+    <sheet name="input_labor_incomes" sheetId="2" r:id="rId4"/>
+    <sheet name="input_labor" sheetId="4" r:id="rId5"/>
+    <sheet name="input_nonlabor" sheetId="5" r:id="rId6"/>
+    <sheet name="input_pop_wdi" sheetId="6" r:id="rId7"/>
+    <sheet name="input-labor-hies" sheetId="7" r:id="rId8"/>
+    <sheet name="input-unpop" sheetId="8" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" fullCalcOnLoad="true"/>
+  <pivotCaches>
+    <pivotCache cacheId="20" r:id="rId10"/>
+    <pivotCache cacheId="27" r:id="rId11"/>
+  </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -42,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="5006" uniqueCount="126">
   <si>
     <t>type_estimation</t>
   </si>
@@ -372,13 +378,61 @@
   </si>
   <si>
     <t>Value</t>
+  </si>
+  <si>
+    <t>LKA</t>
+  </si>
+  <si>
+    <t>MDV</t>
+  </si>
+  <si>
+    <t>unpop_0014</t>
+  </si>
+  <si>
+    <t>unpop_1564</t>
+  </si>
+  <si>
+    <t>unpop_65up</t>
+  </si>
+  <si>
+    <t>unpop_total</t>
+  </si>
+  <si>
+    <t>Sum of Value</t>
+  </si>
+  <si>
+    <t>UN Population 0-14</t>
+  </si>
+  <si>
+    <t>UN Population 15-64</t>
+  </si>
+  <si>
+    <t>UN Population 65+</t>
+  </si>
+  <si>
+    <t>UN Population, total</t>
+  </si>
+  <si>
+    <t>hspop_total</t>
+  </si>
+  <si>
+    <t>hspop_0014</t>
+  </si>
+  <si>
+    <t>hspop_1564</t>
+  </si>
+  <si>
+    <t>hspop_65up</t>
+  </si>
+  <si>
+    <t>ip_total</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <fonts count="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -395,7 +449,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -410,15 +464,137 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF999999"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF999999"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="65"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF999999"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="65"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF999999"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF999999"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF999999"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="65"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="65"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="65"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="65"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF999999"/>
+      </right>
+      <top style="thin">
+        <color indexed="65"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF999999"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="65"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF999999"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="65"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="65"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF999999"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="65"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF999999"/>
+      </right>
+      <top style="thin">
+        <color indexed="65"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF999999"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="true"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -436,8 +612,2353 @@
 </styleSheet>
 </file>
 
+<file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Israel Osorio Rodarte" refreshedDate="45506.726465624997" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="33" xr:uid="{C6AD4678-EE86-0646-8442-F0043B3F8153}">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="A1:E34" sheet="input-labor-hies"/>
+  </cacheSource>
+  <cacheFields count="5">
+    <cacheField name="country" numFmtId="0">
+      <sharedItems count="1">
+        <s v="BGD"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="year" numFmtId="1">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="2022" maxValue="2022" count="1">
+        <n v="2022"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="variable" numFmtId="0">
+      <sharedItems count="33">
+        <s v="poptotal"/>
+        <s v="pop0014"/>
+        <s v="pop1564"/>
+        <s v="pop65up"/>
+        <s v="lstatus3_1564"/>
+        <s v="lstatus2_1564"/>
+        <s v="lstatus1_1564"/>
+        <s v="lstatus12_1564"/>
+        <s v="lstatus1_s0_a1"/>
+        <s v="lstatus1_s0_a2"/>
+        <s v="lstatus1_s0_a3"/>
+        <s v="lstatus1_s0_a4"/>
+        <s v="lstatus1_s0_a5"/>
+        <s v="lstatus1_s0_a6"/>
+        <s v="lstatus1_s1_a1"/>
+        <s v="lstatus1_s1_a2"/>
+        <s v="lstatus1_s1_a3"/>
+        <s v="lstatus1_s1_a4"/>
+        <s v="lstatus1_s1_a5"/>
+        <s v="lstatus1_s1_a6"/>
+        <s v="iptotal"/>
+        <s v="ip_s0_a1"/>
+        <s v="ip_s0_a2"/>
+        <s v="ip_s0_a3"/>
+        <s v="ip_s0_a4"/>
+        <s v="ip_s0_a5"/>
+        <s v="ip_s0_a6"/>
+        <s v="ip_s1_a1"/>
+        <s v="ip_s1_a2"/>
+        <s v="ip_s1_a3"/>
+        <s v="ip_s1_a4"/>
+        <s v="ip_s1_a5"/>
+        <s v="ip_s1_a6"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Indicator" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="Value" numFmtId="1">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="8.3592615127563477" maxValue="165687184"/>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Israel Osorio Rodarte" refreshedDate="45506.726465740743" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="252" xr:uid="{5FB16B0E-F6C1-614D-A266-551CC5A87EB8}">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="A1:E253" sheet="input-unpop"/>
+  </cacheSource>
+  <cacheFields count="5">
+    <cacheField name="country" numFmtId="0">
+      <sharedItems count="3">
+        <s v="BGD"/>
+        <s v="LKA"/>
+        <s v="MDV"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="year" numFmtId="1">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="2010" maxValue="2030" count="21">
+        <n v="2010"/>
+        <n v="2011"/>
+        <n v="2012"/>
+        <n v="2013"/>
+        <n v="2014"/>
+        <n v="2015"/>
+        <n v="2016"/>
+        <n v="2017"/>
+        <n v="2018"/>
+        <n v="2019"/>
+        <n v="2020"/>
+        <n v="2021"/>
+        <n v="2022"/>
+        <n v="2023"/>
+        <n v="2024"/>
+        <n v="2025"/>
+        <n v="2026"/>
+        <n v="2027"/>
+        <n v="2028"/>
+        <n v="2029"/>
+        <n v="2030"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="variable" numFmtId="0">
+      <sharedItems count="4">
+        <s v="unpop_0014"/>
+        <s v="unpop_1564"/>
+        <s v="unpop_65up"/>
+        <s v="unpop_total"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Indicator" numFmtId="0">
+      <sharedItems count="4">
+        <s v="UN Population 0-14"/>
+        <s v="UN Population 15-64"/>
+        <s v="UN Population 65+"/>
+        <s v="UN Population, total"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Value" numFmtId="1">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="16033" maxValue="186072406.5"/>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="33">
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="Population, total"/>
+    <n v="165687184"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="Population, 00-14"/>
+    <n v="46586420"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="2"/>
+    <s v="Population, 15-64"/>
+    <n v="108849192"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="3"/>
+    <s v="Population, 65+"/>
+    <n v="10251569"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="4"/>
+    <s v="Not in Labor Force"/>
+    <n v="56894816"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="5"/>
+    <s v="Unemployed"/>
+    <n v="2431221.5"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="6"/>
+    <s v="Employed"/>
+    <n v="49523156"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="7"/>
+    <s v="Labor Foce"/>
+    <n v="51954376"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="8"/>
+    <s v="Workers Agriculture Unskilled"/>
+    <n v="15003029"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="9"/>
+    <s v="Workers Construction Unskilled"/>
+    <n v="2547871.5"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="10"/>
+    <s v="Workers Rest of Industry Unskilled"/>
+    <n v="7852660.5"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="11"/>
+    <s v="Workers Transport Unskilled"/>
+    <n v="4113829.25"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="12"/>
+    <s v="Workers Finance Unskilled"/>
+    <n v="2931368.25"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="13"/>
+    <s v="Workers Rest of Services Unskilled"/>
+    <n v="2613509.5"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="14"/>
+    <s v="Workers Agriculture Skilled"/>
+    <n v="1030150.125"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="15"/>
+    <s v="Workers Construction Skilled"/>
+    <n v="1354453.125"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="16"/>
+    <s v="Workers Rest of Industry Skilled"/>
+    <n v="4036646.25"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="17"/>
+    <s v="Workers Transport Skilled"/>
+    <n v="436373.875"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="18"/>
+    <s v="Workers Finance Skilled"/>
+    <n v="3733049.75"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="19"/>
+    <s v="Workers Rest of Services Skilled"/>
+    <n v="3870213.5"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="20"/>
+    <s v="IP All"/>
+    <n v="16.301263809204102"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="21"/>
+    <s v="Mean income in Agriculture Unskilled"/>
+    <n v="8.3592615127563477"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="22"/>
+    <s v="Mean income in Construction Unskilled"/>
+    <n v="10.650352478027344"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="23"/>
+    <s v="Mean income in Rest of Industry Unskille"/>
+    <n v="17.359308242797852"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="24"/>
+    <s v="Mean income in Transport Unskilled"/>
+    <n v="12.662323951721191"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="25"/>
+    <s v="Mean income in Finance Unskilled"/>
+    <n v="13.721147537231445"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="26"/>
+    <s v="Mean income in Rest of Services Unskille"/>
+    <n v="12.179794311523438"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="27"/>
+    <s v="Mean income in Agriculture Skilled"/>
+    <n v="35.935928344726562"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="28"/>
+    <s v="Mean income in Construction Skilled"/>
+    <n v="30.482030868530273"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="29"/>
+    <s v="Mean income in Rest of Industry Skilled"/>
+    <n v="20.005949020385742"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="30"/>
+    <s v="Mean income in Transport Skilled"/>
+    <n v="31.673978805541992"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="31"/>
+    <s v="Mean income in Finance Skilled"/>
+    <n v="35.630630493164062"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="32"/>
+    <s v="Mean income in Rest of Services Skilled"/>
+    <n v="20.934955596923828"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="252">
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="51825406"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="93970006.5"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="6406569"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="3"/>
+    <x v="3"/>
+    <n v="152201981.5"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="51579249.5"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="95340177.5"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="6671648.5"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="3"/>
+    <x v="3"/>
+    <n v="153591075.5"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="51214229.5"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="96894688.5"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="6961183.5"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="3"/>
+    <x v="3"/>
+    <n v="155070101.5"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="50753511.5"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="98536132.5"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="3"/>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="7242496.5"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="3"/>
+    <x v="3"/>
+    <x v="3"/>
+    <n v="156532140.5"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="4"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="50242810.5"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="4"/>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="100208409.5"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="4"/>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="7513708.5"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="4"/>
+    <x v="3"/>
+    <x v="3"/>
+    <n v="157964928.5"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="5"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="49699406"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="5"/>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="101869851"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="5"/>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="7813922"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="5"/>
+    <x v="3"/>
+    <x v="3"/>
+    <n v="159383179"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="6"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="49153855.5"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="6"/>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="103501312.5"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="6"/>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="8156764.5"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="6"/>
+    <x v="3"/>
+    <x v="3"/>
+    <n v="160811932.5"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="7"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="48779609.5"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="7"/>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="104877347.5"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="7"/>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="8529189.5"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="7"/>
+    <x v="3"/>
+    <x v="3"/>
+    <n v="162186146.5"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="8"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="48639192"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="8"/>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="105958585"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="8"/>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="8925326.5"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="8"/>
+    <x v="3"/>
+    <x v="3"/>
+    <n v="163523103.5"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="9"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="48610039"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="9"/>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="106964718"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="9"/>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="9338298"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="9"/>
+    <x v="3"/>
+    <x v="3"/>
+    <n v="164913055"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="10"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="48656232"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="10"/>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="107938076.5"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="10"/>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="9703715.5"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="10"/>
+    <x v="3"/>
+    <x v="3"/>
+    <n v="166298024"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="11"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="48745975"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="11"/>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="108897252.5"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="11"/>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="10015627"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="11"/>
+    <x v="3"/>
+    <x v="3"/>
+    <n v="167658854.5"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="12"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="48732187.5"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="12"/>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="110260679.5"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="12"/>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="10392030.5"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="12"/>
+    <x v="3"/>
+    <x v="3"/>
+    <n v="169384897.5"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="13"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="48629551"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="13"/>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="111999785.5"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="13"/>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="10837653.5"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="13"/>
+    <x v="3"/>
+    <x v="3"/>
+    <n v="171466990"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="14"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="48578249.5"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="14"/>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="113705228.5"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="14"/>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="11278886"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="14"/>
+    <x v="3"/>
+    <x v="3"/>
+    <n v="173562364"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="15"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="48569949"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="15"/>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="115401404"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="15"/>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="11715546.5"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="15"/>
+    <x v="3"/>
+    <x v="3"/>
+    <n v="175686899.5"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="16"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="48593660.5"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="16"/>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="117061314"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="16"/>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="12163070"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="16"/>
+    <x v="3"/>
+    <x v="3"/>
+    <n v="177818044.5"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="17"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="48645360"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="17"/>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="118663717.5"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="17"/>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="12621097.5"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="17"/>
+    <x v="3"/>
+    <x v="3"/>
+    <n v="179930175"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="18"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="48717790.5"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="18"/>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="120207386"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="18"/>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="13089597"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="18"/>
+    <x v="3"/>
+    <x v="3"/>
+    <n v="182014773.5"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="19"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="48797893.5"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="19"/>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="121697394.5"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="19"/>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="13569331.5"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="19"/>
+    <x v="3"/>
+    <x v="3"/>
+    <n v="184064619.5"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="20"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="48867854"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="20"/>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="123142654.5"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="20"/>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="14061898"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="20"/>
+    <x v="3"/>
+    <x v="3"/>
+    <n v="186072406.5"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="5307368.5"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="14020983"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="1550737.5"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="3"/>
+    <x v="3"/>
+    <n v="20879089"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="5318138.5"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="14077404.5"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="1613505"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="3"/>
+    <x v="3"/>
+    <n v="21009048"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="5330135"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="14152031.5"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="1687291.5"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="3"/>
+    <x v="3"/>
+    <n v="21169458"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="5345468.5"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="14242213"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="3"/>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="1771145.5"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="3"/>
+    <x v="3"/>
+    <x v="3"/>
+    <n v="21358827"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="4"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="5359333"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="4"/>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="14327354.5"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="4"/>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="1860768.5"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="4"/>
+    <x v="3"/>
+    <x v="3"/>
+    <n v="21547456"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="5"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="5365756"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="5"/>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="14410572.5"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="5"/>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="1953643"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="5"/>
+    <x v="3"/>
+    <x v="3"/>
+    <n v="21729971.5"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="6"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="5363394"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="6"/>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="14499705.5"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="6"/>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="2047673"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="6"/>
+    <x v="3"/>
+    <x v="3"/>
+    <n v="21910772.5"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="7"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="5351604"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="7"/>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="14594823"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="7"/>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="2141095"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="7"/>
+    <x v="3"/>
+    <x v="3"/>
+    <n v="22087522"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="8"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="5330296"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="8"/>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="14689505"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="8"/>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="2233317"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="8"/>
+    <x v="3"/>
+    <x v="3"/>
+    <n v="22253118"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="9"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="5301101"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="9"/>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="14784252.5"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="9"/>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="2325198"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="9"/>
+    <x v="3"/>
+    <x v="3"/>
+    <n v="22410551.5"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="10"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="5265351"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="10"/>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="14878798"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="10"/>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="2417658"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="10"/>
+    <x v="3"/>
+    <x v="3"/>
+    <n v="22561807"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="11"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="5224716"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="11"/>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="14968253.5"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="11"/>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="2507402.5"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="11"/>
+    <x v="3"/>
+    <x v="3"/>
+    <n v="22700372"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="12"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="5181323"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="12"/>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="15054467"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="12"/>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="2599175"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="12"/>
+    <x v="3"/>
+    <x v="3"/>
+    <n v="22834965"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="13"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="5136746"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="13"/>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="15138299.5"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="13"/>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="2696571.5"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="13"/>
+    <x v="3"/>
+    <x v="3"/>
+    <n v="22971617"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="14"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="5089781.5"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="14"/>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="15217341.5"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="14"/>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="2796441.5"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="14"/>
+    <x v="3"/>
+    <x v="3"/>
+    <n v="23103564.5"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="15"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="5040984.5"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="15"/>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="15290676"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="15"/>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="2897810"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="15"/>
+    <x v="3"/>
+    <x v="3"/>
+    <n v="23229470.5"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="16"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="4993550"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="16"/>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="15357163.5"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="16"/>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="2997601.5"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="16"/>
+    <x v="3"/>
+    <x v="3"/>
+    <n v="23348315"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="17"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="4945735"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="17"/>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="15421106.5"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="17"/>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="3094719"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="17"/>
+    <x v="3"/>
+    <x v="3"/>
+    <n v="23461560.5"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="18"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="4895209"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="18"/>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="15485231"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="18"/>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="3188734.5"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="18"/>
+    <x v="3"/>
+    <x v="3"/>
+    <n v="23569174.5"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="19"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="4846391.5"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="19"/>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="15544230"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="19"/>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="3280015.5"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="19"/>
+    <x v="3"/>
+    <x v="3"/>
+    <n v="23670637"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="20"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="4804294.5"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="20"/>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="15594421"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="20"/>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="3369236.5"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="20"/>
+    <x v="3"/>
+    <x v="3"/>
+    <n v="23767952"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="92595"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="252164"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="16033"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="3"/>
+    <x v="3"/>
+    <n v="360792"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="92909"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="264489"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="16276"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="3"/>
+    <x v="3"/>
+    <n v="373674"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="93898.5"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="276430"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="16489.5"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="3"/>
+    <x v="3"/>
+    <n v="386818"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="95422.5"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="287942"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="3"/>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="16706"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="3"/>
+    <x v="3"/>
+    <x v="3"/>
+    <n v="400070.5"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="4"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="97319"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="4"/>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="299348"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="4"/>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="16950"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="4"/>
+    <x v="3"/>
+    <x v="3"/>
+    <n v="413617"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="5"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="99375.5"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="5"/>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="311589"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="5"/>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="17189.5"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="5"/>
+    <x v="3"/>
+    <x v="3"/>
+    <n v="428154"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="6"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="101283"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="6"/>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="324593.5"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="6"/>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="17431.5"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="6"/>
+    <x v="3"/>
+    <x v="3"/>
+    <n v="443308"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="7"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="102945"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="7"/>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="337617"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="7"/>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="17725"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="7"/>
+    <x v="3"/>
+    <x v="3"/>
+    <n v="458287"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="8"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="104419"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="8"/>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="350552"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="8"/>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="18127.5"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="8"/>
+    <x v="3"/>
+    <x v="3"/>
+    <n v="473098.5"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="9"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="105693"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="9"/>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="363344"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="9"/>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="18694"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="9"/>
+    <x v="3"/>
+    <x v="3"/>
+    <n v="487731"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="10"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="106666"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="10"/>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="376022"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="10"/>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="19430.5"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="10"/>
+    <x v="3"/>
+    <x v="3"/>
+    <n v="502118.5"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="11"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="107192.5"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="11"/>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="388687"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="11"/>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="20274"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="11"/>
+    <x v="3"/>
+    <x v="3"/>
+    <n v="516153.5"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="12"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="106825.5"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="12"/>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="395889"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="12"/>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="21392"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="12"/>
+    <x v="3"/>
+    <x v="3"/>
+    <n v="524106.5"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="13"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="105456.5"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="13"/>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="397682.5"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="13"/>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="22855"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="13"/>
+    <x v="3"/>
+    <x v="3"/>
+    <n v="525994"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="14"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="103406.5"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="14"/>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="399901.5"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="14"/>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="24491"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="14"/>
+    <x v="3"/>
+    <x v="3"/>
+    <n v="527799"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="15"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="100832"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="15"/>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="402581.5"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="15"/>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="26262.5"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="15"/>
+    <x v="3"/>
+    <x v="3"/>
+    <n v="529676"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="16"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="97937"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="16"/>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="405456"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="16"/>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="28124"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="16"/>
+    <x v="3"/>
+    <x v="3"/>
+    <n v="531517"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="17"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="94936.5"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="17"/>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="408466"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="17"/>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="30028.5"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="17"/>
+    <x v="3"/>
+    <x v="3"/>
+    <n v="533431"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="18"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="92009"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="18"/>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="411516.5"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="18"/>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="31968"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="18"/>
+    <x v="3"/>
+    <x v="3"/>
+    <n v="535493.5"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="19"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="89227.5"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="19"/>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="414389.5"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="19"/>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="33953.5"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="19"/>
+    <x v="3"/>
+    <x v="3"/>
+    <n v="537570.5"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="20"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="86612"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="20"/>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="417043"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="20"/>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="36012"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="20"/>
+    <x v="3"/>
+    <x v="3"/>
+    <n v="539667"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{70E1E383-8279-384D-AF3E-C25CFB3EDC69}" name="PivotTable1" cacheId="27" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" showDrill="0" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" gridDropZones="1">
+  <location ref="A4:N9" firstHeaderRow="1" firstDataRow="2" firstDataCol="2" rowPageCount="1" colPageCount="1"/>
+  <pivotFields count="5">
+    <pivotField axis="axisPage" compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="4">
+        <item x="0"/>
+        <item h="1" x="1"/>
+        <item h="1" x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisCol" compact="0" numFmtId="1" outline="0" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="22">
+        <item h="1" x="0"/>
+        <item h="1" x="1"/>
+        <item h="1" x="2"/>
+        <item h="1" x="3"/>
+        <item h="1" x="4"/>
+        <item h="1" x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item x="14"/>
+        <item x="15"/>
+        <item x="16"/>
+        <item h="1" x="17"/>
+        <item h="1" x="18"/>
+        <item h="1" x="19"/>
+        <item x="20"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" compact="0" outline="0" showAll="0" defaultSubtotal="0">
+      <items count="4">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" compact="0" outline="0" showAll="0" defaultSubtotal="0">
+      <items count="4">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" compact="0" numFmtId="1" outline="0" showAll="0"/>
+  </pivotFields>
+  <rowFields count="2">
+    <field x="3"/>
+    <field x="2"/>
+  </rowFields>
+  <rowItems count="4">
+    <i>
+      <x/>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+      <x v="3"/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="1"/>
+  </colFields>
+  <colItems count="12">
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i>
+      <x v="11"/>
+    </i>
+    <i>
+      <x v="12"/>
+    </i>
+    <i>
+      <x v="13"/>
+    </i>
+    <i>
+      <x v="14"/>
+    </i>
+    <i>
+      <x v="15"/>
+    </i>
+    <i>
+      <x v="16"/>
+    </i>
+    <i>
+      <x v="20"/>
+    </i>
+  </colItems>
+  <pageFields count="1">
+    <pageField fld="0" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Sum of Value" fld="4" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{B854DE5E-242F-6F4F-AE12-1DFB2DEBAFEB}" name="PivotTable2" cacheId="20" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" showDrill="0" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" showHeaders="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A21:C38" firstHeaderRow="1" firstDataRow="1" firstDataCol="0"/>
+  <pivotFields count="5">
+    <pivotField showAll="0">
+      <items count="2">
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField numFmtId="1" showAll="0">
+      <items count="2">
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="34">
+        <item x="21"/>
+        <item x="22"/>
+        <item x="23"/>
+        <item x="24"/>
+        <item x="25"/>
+        <item x="26"/>
+        <item x="27"/>
+        <item x="28"/>
+        <item x="29"/>
+        <item x="30"/>
+        <item x="31"/>
+        <item x="32"/>
+        <item x="20"/>
+        <item x="6"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item x="14"/>
+        <item x="15"/>
+        <item x="16"/>
+        <item x="17"/>
+        <item x="18"/>
+        <item x="19"/>
+        <item x="7"/>
+        <item x="5"/>
+        <item x="4"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField numFmtId="1" showAll="0"/>
+  </pivotFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -588,7 +3109,7 @@
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill rotWithShape="true">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -612,9 +3133,9 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="5400000" scaled="false"/>
         </a:gradFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill rotWithShape="true">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -638,7 +3159,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="5400000" scaled="false"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
@@ -673,7 +3194,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="false">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -691,7 +3212,7 @@
             <a:satMod val="170000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill rotWithShape="true">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -716,7 +3237,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="5400000" scaled="false"/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
@@ -752,20 +3273,420 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77C06B16-42DA-F44E-859B-C3689E9BA6FE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D5977A6-5090-024E-9F4F-11EBF7021150}">
+  <dimension ref="A2:N38"/>
+  <sheetViews>
+    <sheetView tabSelected="true" zoomScale="167" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="22" bestFit="true" customWidth="true"/>
+    <col min="2" max="2" width="11" bestFit="true" customWidth="true"/>
+    <col min="3" max="5" width="12.1640625" bestFit="true" customWidth="true"/>
+    <col min="6" max="6" width="10.1640625" bestFit="true" customWidth="true"/>
+    <col min="7" max="14" width="12.1640625" bestFit="true" customWidth="true"/>
+    <col min="15" max="15" width="38.33203125" bestFit="true" customWidth="true"/>
+    <col min="16" max="16" width="30.33203125" bestFit="true" customWidth="true"/>
+    <col min="17" max="17" width="32.1640625" bestFit="true" customWidth="true"/>
+    <col min="18" max="18" width="32.33203125" bestFit="true" customWidth="true"/>
+    <col min="19" max="19" width="34.1640625" bestFit="true" customWidth="true"/>
+    <col min="20" max="20" width="36.5" bestFit="true" customWidth="true"/>
+    <col min="21" max="21" width="38.33203125" bestFit="true" customWidth="true"/>
+    <col min="22" max="22" width="37.5" bestFit="true" customWidth="true"/>
+    <col min="23" max="23" width="39.33203125" bestFit="true" customWidth="true"/>
+    <col min="24" max="24" width="36.83203125" bestFit="true" customWidth="true"/>
+    <col min="25" max="25" width="38.6640625" bestFit="true" customWidth="true"/>
+    <col min="26" max="26" width="37.83203125" bestFit="true" customWidth="true"/>
+    <col min="27" max="27" width="39.6640625" bestFit="true" customWidth="true"/>
+    <col min="28" max="28" width="31.5" bestFit="true" customWidth="true"/>
+    <col min="29" max="29" width="33.33203125" bestFit="true" customWidth="true"/>
+    <col min="30" max="30" width="33.6640625" bestFit="true" customWidth="true"/>
+    <col min="31" max="31" width="35.5" bestFit="true" customWidth="true"/>
+    <col min="32" max="32" width="18.83203125" bestFit="true" customWidth="true"/>
+    <col min="33" max="33" width="20.5" bestFit="true" customWidth="true"/>
+    <col min="34" max="34" width="18" bestFit="true" customWidth="true"/>
+    <col min="35" max="35" width="20" bestFit="true" customWidth="true"/>
+    <col min="36" max="36" width="18" bestFit="true" customWidth="true"/>
+    <col min="37" max="37" width="20" bestFit="true" customWidth="true"/>
+    <col min="38" max="38" width="16.33203125" bestFit="true" customWidth="true"/>
+    <col min="39" max="39" width="18.33203125" bestFit="true" customWidth="true"/>
+    <col min="40" max="40" width="17.1640625" bestFit="true" customWidth="true"/>
+    <col min="41" max="41" width="19.1640625" bestFit="true" customWidth="true"/>
+    <col min="42" max="42" width="14.1640625" bestFit="true" customWidth="true"/>
+    <col min="43" max="43" width="15.83203125" bestFit="true" customWidth="true"/>
+    <col min="44" max="44" width="26.33203125" bestFit="true" customWidth="true"/>
+    <col min="45" max="46" width="28.33203125" bestFit="true" customWidth="true"/>
+    <col min="47" max="47" width="30.5" bestFit="true" customWidth="true"/>
+    <col min="48" max="48" width="28" bestFit="true" customWidth="true"/>
+    <col min="49" max="49" width="30" bestFit="true" customWidth="true"/>
+    <col min="50" max="50" width="30.33203125" bestFit="true" customWidth="true"/>
+    <col min="51" max="51" width="32.33203125" bestFit="true" customWidth="true"/>
+    <col min="52" max="52" width="24" bestFit="true" customWidth="true"/>
+    <col min="53" max="53" width="25.6640625" bestFit="true" customWidth="true"/>
+    <col min="54" max="54" width="26.1640625" bestFit="true" customWidth="true"/>
+    <col min="55" max="55" width="27.83203125" bestFit="true" customWidth="true"/>
+    <col min="56" max="56" width="30.1640625" bestFit="true" customWidth="true"/>
+    <col min="57" max="57" width="32.1640625" bestFit="true" customWidth="true"/>
+    <col min="58" max="58" width="32.33203125" bestFit="true" customWidth="true"/>
+    <col min="59" max="59" width="34.33203125" bestFit="true" customWidth="true"/>
+    <col min="60" max="60" width="30.5" bestFit="true" customWidth="true"/>
+    <col min="61" max="62" width="32.5" bestFit="true" customWidth="true"/>
+    <col min="63" max="63" width="34.6640625" bestFit="true" customWidth="true"/>
+    <col min="64" max="64" width="25.33203125" bestFit="true" customWidth="true"/>
+    <col min="65" max="65" width="27.1640625" bestFit="true" customWidth="true"/>
+    <col min="66" max="66" width="27.33203125" bestFit="true" customWidth="true"/>
+    <col min="67" max="67" width="29.1640625" bestFit="true" customWidth="true"/>
+    <col min="68" max="68" width="12.1640625" bestFit="true" customWidth="true"/>
+  </cols>
+  <sheetData>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="2" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="4" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="5" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C5" s="4">
+        <v>2016</v>
+      </c>
+      <c r="D5" s="4">
+        <v>2017</v>
+      </c>
+      <c r="E5" s="4">
+        <v>2018</v>
+      </c>
+      <c r="F5" s="4">
+        <v>2019</v>
+      </c>
+      <c r="G5" s="4">
+        <v>2020</v>
+      </c>
+      <c r="H5" s="4">
+        <v>2021</v>
+      </c>
+      <c r="I5" s="4">
+        <v>2022</v>
+      </c>
+      <c r="J5" s="4">
+        <v>2023</v>
+      </c>
+      <c r="K5" s="4">
+        <v>2024</v>
+      </c>
+      <c r="L5" s="4">
+        <v>2025</v>
+      </c>
+      <c r="M5" s="4">
+        <v>2026</v>
+      </c>
+      <c r="N5" s="4">
+        <v>2030</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="6" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>117</v>
+      </c>
+      <c r="B6" t="s">
+        <v>112</v>
+      </c>
+      <c r="C6" s="5">
+        <v>49153855.5</v>
+      </c>
+      <c r="D6" s="5">
+        <v>48779609.5</v>
+      </c>
+      <c r="E6" s="5">
+        <v>48639192</v>
+      </c>
+      <c r="F6" s="5">
+        <v>48610039</v>
+      </c>
+      <c r="G6" s="5">
+        <v>48656232</v>
+      </c>
+      <c r="H6" s="5">
+        <v>48745975</v>
+      </c>
+      <c r="I6" s="5">
+        <v>48732187.5</v>
+      </c>
+      <c r="J6" s="5">
+        <v>48629551</v>
+      </c>
+      <c r="K6" s="5">
+        <v>48578249.5</v>
+      </c>
+      <c r="L6" s="5">
+        <v>48569949</v>
+      </c>
+      <c r="M6" s="5">
+        <v>48593660.5</v>
+      </c>
+      <c r="N6" s="5">
+        <v>48867854</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="7" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>118</v>
+      </c>
+      <c r="B7" t="s">
+        <v>113</v>
+      </c>
+      <c r="C7" s="5">
+        <v>103501312.5</v>
+      </c>
+      <c r="D7" s="5">
+        <v>104877347.5</v>
+      </c>
+      <c r="E7" s="5">
+        <v>105958585</v>
+      </c>
+      <c r="F7" s="5">
+        <v>106964718</v>
+      </c>
+      <c r="G7" s="5">
+        <v>107938076.5</v>
+      </c>
+      <c r="H7" s="5">
+        <v>108897252.5</v>
+      </c>
+      <c r="I7" s="5">
+        <v>110260679.5</v>
+      </c>
+      <c r="J7" s="5">
+        <v>111999785.5</v>
+      </c>
+      <c r="K7" s="5">
+        <v>113705228.5</v>
+      </c>
+      <c r="L7" s="5">
+        <v>115401404</v>
+      </c>
+      <c r="M7" s="5">
+        <v>117061314</v>
+      </c>
+      <c r="N7" s="5">
+        <v>123142654.5</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="8" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>119</v>
+      </c>
+      <c r="B8" t="s">
+        <v>114</v>
+      </c>
+      <c r="C8" s="5">
+        <v>8156764.5</v>
+      </c>
+      <c r="D8" s="5">
+        <v>8529189.5</v>
+      </c>
+      <c r="E8" s="5">
+        <v>8925326.5</v>
+      </c>
+      <c r="F8" s="5">
+        <v>9338298</v>
+      </c>
+      <c r="G8" s="5">
+        <v>9703715.5</v>
+      </c>
+      <c r="H8" s="5">
+        <v>10015627</v>
+      </c>
+      <c r="I8" s="5">
+        <v>10392030.5</v>
+      </c>
+      <c r="J8" s="5">
+        <v>10837653.5</v>
+      </c>
+      <c r="K8" s="5">
+        <v>11278886</v>
+      </c>
+      <c r="L8" s="5">
+        <v>11715546.5</v>
+      </c>
+      <c r="M8" s="5">
+        <v>12163070</v>
+      </c>
+      <c r="N8" s="5">
+        <v>14061898</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="9" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>120</v>
+      </c>
+      <c r="B9" t="s">
+        <v>115</v>
+      </c>
+      <c r="C9" s="5">
+        <v>160811932.5</v>
+      </c>
+      <c r="D9" s="5">
+        <v>162186146.5</v>
+      </c>
+      <c r="E9" s="5">
+        <v>163523103.5</v>
+      </c>
+      <c r="F9" s="5">
+        <v>164913055</v>
+      </c>
+      <c r="G9" s="5">
+        <v>166298024</v>
+      </c>
+      <c r="H9" s="5">
+        <v>167658854.5</v>
+      </c>
+      <c r="I9" s="5">
+        <v>169384897.5</v>
+      </c>
+      <c r="J9" s="5">
+        <v>171466990</v>
+      </c>
+      <c r="K9" s="5">
+        <v>173562364</v>
+      </c>
+      <c r="L9" s="5">
+        <v>175686899.5</v>
+      </c>
+      <c r="M9" s="5">
+        <v>177818044.5</v>
+      </c>
+      <c r="N9" s="5">
+        <v>186072406.5</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="21" x14ac:dyDescent="0.2">
+      <c r="A21" s="6"/>
+      <c r="B21" s="7"/>
+      <c r="C21" s="8"/>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="22" x14ac:dyDescent="0.2">
+      <c r="A22" s="9"/>
+      <c r="B22" s="10"/>
+      <c r="C22" s="11"/>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="23" x14ac:dyDescent="0.2">
+      <c r="A23" s="9"/>
+      <c r="B23" s="10"/>
+      <c r="C23" s="11"/>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="24" x14ac:dyDescent="0.2">
+      <c r="A24" s="9"/>
+      <c r="B24" s="10"/>
+      <c r="C24" s="11"/>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="25" x14ac:dyDescent="0.2">
+      <c r="A25" s="9"/>
+      <c r="B25" s="10"/>
+      <c r="C25" s="11"/>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="26" x14ac:dyDescent="0.2">
+      <c r="A26" s="9"/>
+      <c r="B26" s="10"/>
+      <c r="C26" s="11"/>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="27" x14ac:dyDescent="0.2">
+      <c r="A27" s="9"/>
+      <c r="B27" s="10"/>
+      <c r="C27" s="11"/>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="28" x14ac:dyDescent="0.2">
+      <c r="A28" s="9"/>
+      <c r="B28" s="10"/>
+      <c r="C28" s="11"/>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="29" x14ac:dyDescent="0.2">
+      <c r="A29" s="9"/>
+      <c r="B29" s="10"/>
+      <c r="C29" s="11"/>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="30" x14ac:dyDescent="0.2">
+      <c r="A30" s="9"/>
+      <c r="B30" s="10"/>
+      <c r="C30" s="11"/>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="31" x14ac:dyDescent="0.2">
+      <c r="A31" s="9"/>
+      <c r="B31" s="10"/>
+      <c r="C31" s="11"/>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="32" x14ac:dyDescent="0.2">
+      <c r="A32" s="9"/>
+      <c r="B32" s="10"/>
+      <c r="C32" s="11"/>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="33" x14ac:dyDescent="0.2">
+      <c r="A33" s="9"/>
+      <c r="B33" s="10"/>
+      <c r="C33" s="11"/>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="34" x14ac:dyDescent="0.2">
+      <c r="A34" s="9"/>
+      <c r="B34" s="10"/>
+      <c r="C34" s="11"/>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="35" x14ac:dyDescent="0.2">
+      <c r="A35" s="9"/>
+      <c r="B35" s="10"/>
+      <c r="C35" s="11"/>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="36" x14ac:dyDescent="0.2">
+      <c r="A36" s="9"/>
+      <c r="B36" s="10"/>
+      <c r="C36" s="11"/>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="37" x14ac:dyDescent="0.2">
+      <c r="A37" s="9"/>
+      <c r="B37" s="10"/>
+      <c r="C37" s="11"/>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="38" x14ac:dyDescent="0.2">
+      <c r="A38" s="12"/>
+      <c r="B38" s="13"/>
+      <c r="C38" s="14"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77C06B16-42DA-F44E-859B-C3689E9BA6FE}">
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView zoomScale="132" workbookViewId="0">
       <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.1640625" bestFit="true" customWidth="true"/>
+    <col min="4" max="4" width="11.5" bestFit="true" customWidth="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -785,7 +3706,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="2" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>0</v>
       </c>
@@ -810,17 +3731,17 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{269571F4-257F-754B-B70E-B8CEC075A1BC}">
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{269571F4-257F-754B-B70E-B8CEC075A1BC}">
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView zoomScale="150" workbookViewId="0">
       <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>6</v>
       </c>
@@ -828,7 +3749,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>15</v>
       </c>
@@ -836,7 +3757,7 @@
         <v>0.17081331</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>16</v>
       </c>
@@ -844,7 +3765,7 @@
         <v>0.40695176</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>17</v>
       </c>
@@ -852,7 +3773,7 @@
         <v>0.44895389000000002</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>18</v>
       </c>
@@ -860,7 +3781,7 @@
         <v>0.27422506000000002</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>19</v>
       </c>
@@ -868,7 +3789,7 @@
         <v>0.44391480999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>20</v>
       </c>
@@ -876,7 +3797,7 @@
         <v>0.35662206000000002</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="8" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>21</v>
       </c>
@@ -889,17 +3810,17 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{388D8283-40D7-1E49-833E-107C7E86E434}">
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{388D8283-40D7-1E49-833E-107C7E86E434}">
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView zoomScale="138" workbookViewId="0">
       <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>6</v>
       </c>
@@ -907,7 +3828,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -915,7 +3836,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -923,7 +3844,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -931,7 +3852,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -939,7 +3860,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>12</v>
       </c>
@@ -947,7 +3868,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -955,7 +3876,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="8" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -968,20 +3889,20 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9E752BF-B4A0-B54F-A977-129E64ED2B67}">
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9E752BF-B4A0-B54F-A977-129E64ED2B67}">
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.1640625" bestFit="true" customWidth="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>22</v>
       </c>
@@ -989,7 +3910,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>23</v>
       </c>
@@ -997,7 +3918,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>24</v>
       </c>
@@ -1005,7 +3926,7 @@
         <v>-1.4210000000000001E-7</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>25</v>
       </c>
@@ -1013,7 +3934,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>26</v>
       </c>
@@ -1021,7 +3942,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>27</v>
       </c>
@@ -1029,7 +3950,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>28</v>
       </c>
@@ -1037,7 +3958,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="8" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>29</v>
       </c>
@@ -1045,7 +3966,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="9" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>30</v>
       </c>
@@ -1058,17 +3979,17 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F1F380A-C45B-504E-BEF3-7731BEAEDDDD}">
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F1F380A-C45B-504E-BEF3-7731BEAEDDDD}">
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>22</v>
       </c>
@@ -1076,7 +3997,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>31</v>
       </c>
@@ -1084,7 +4005,7 @@
         <v>0.23412253</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>32</v>
       </c>
@@ -1092,7 +4013,7 @@
         <v>0.33244464000000001</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>33</v>
       </c>
@@ -1100,7 +4021,7 @@
         <v>0.33244464000000001</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>34</v>
       </c>
@@ -1113,17 +4034,17 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B1FB60F-9581-3F4D-AB41-AA3F46C97C4A}">
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B1FB60F-9581-3F4D-AB41-AA3F46C97C4A}">
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="L38" sqref="L38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>35</v>
       </c>
@@ -1131,7 +4052,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>37</v>
       </c>
@@ -1144,22 +4065,24 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:F34"/>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <dimension ref="A1:E34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="200" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView zoomScale="200" workbookViewId="0">
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="4" max="4" width="34.1640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.5" customWidth="1"/>
-    <col min="6" max="6" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.1640625" bestFit="true" customWidth="true"/>
+    <col min="3" max="3" width="13.5" bestFit="true" customWidth="true"/>
+    <col min="4" max="4" width="34.1640625" bestFit="true" customWidth="true"/>
+    <col min="5" max="5" width="18.5" customWidth="true"/>
+    <col min="6" max="6" width="10.1640625" bestFit="true" customWidth="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1">
       <c r="A1" t="s">
         <v>38</v>
       </c>
@@ -1176,7 +4099,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2">
       <c r="A2" t="s">
         <v>39</v>
       </c>
@@ -1184,7 +4107,7 @@
         <v>2022</v>
       </c>
       <c r="C2" t="s">
-        <v>42</v>
+        <v>121</v>
       </c>
       <c r="D2" t="s">
         <v>76</v>
@@ -1192,9 +4115,8 @@
       <c r="E2" s="2">
         <v>165687184</v>
       </c>
-      <c r="F2" s="3"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3">
       <c r="A3" t="s">
         <v>39</v>
       </c>
@@ -1202,7 +4124,7 @@
         <v>2022</v>
       </c>
       <c r="C3" t="s">
-        <v>43</v>
+        <v>122</v>
       </c>
       <c r="D3" t="s">
         <v>77</v>
@@ -1211,7 +4133,7 @@
         <v>46586420</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4">
       <c r="A4" t="s">
         <v>39</v>
       </c>
@@ -1219,7 +4141,7 @@
         <v>2022</v>
       </c>
       <c r="C4" t="s">
-        <v>44</v>
+        <v>123</v>
       </c>
       <c r="D4" t="s">
         <v>78</v>
@@ -1227,12 +4149,8 @@
       <c r="E4" s="2">
         <v>108849192</v>
       </c>
-      <c r="F4" s="3">
-        <f>SUM(E6:E8)</f>
-        <v>108849193.5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5">
       <c r="A5" t="s">
         <v>39</v>
       </c>
@@ -1240,7 +4158,7 @@
         <v>2022</v>
       </c>
       <c r="C5" t="s">
-        <v>45</v>
+        <v>124</v>
       </c>
       <c r="D5" t="s">
         <v>79</v>
@@ -1249,7 +4167,7 @@
         <v>10251569</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6">
       <c r="A6" t="s">
         <v>39</v>
       </c>
@@ -1266,7 +4184,7 @@
         <v>56894816</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7">
       <c r="A7" t="s">
         <v>39</v>
       </c>
@@ -1283,7 +4201,7 @@
         <v>2431221.5</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8">
       <c r="A8" t="s">
         <v>39</v>
       </c>
@@ -1299,9 +4217,8 @@
       <c r="E8" s="2">
         <v>49523156</v>
       </c>
-      <c r="F8" s="3"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="9">
       <c r="A9" t="s">
         <v>39</v>
       </c>
@@ -1317,9 +4234,8 @@
       <c r="E9" s="2">
         <v>51954376</v>
       </c>
-      <c r="F9" s="3"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="10">
       <c r="A10" t="s">
         <v>39</v>
       </c>
@@ -1333,10 +4249,10 @@
         <v>84</v>
       </c>
       <c r="E10" s="2">
-        <v>14996615</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+        <v>15003029</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" t="s">
         <v>39</v>
       </c>
@@ -1350,10 +4266,10 @@
         <v>85</v>
       </c>
       <c r="E11" s="2">
-        <v>2544057.5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+        <v>2547871.5</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" t="s">
         <v>39</v>
       </c>
@@ -1367,10 +4283,10 @@
         <v>86</v>
       </c>
       <c r="E12" s="2">
-        <v>7846010.5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+        <v>7852660.5</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" t="s">
         <v>39</v>
       </c>
@@ -1387,7 +4303,7 @@
         <v>4113829.25</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14">
       <c r="A14" t="s">
         <v>39</v>
       </c>
@@ -1404,7 +4320,7 @@
         <v>2931368.25</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15">
       <c r="A15" t="s">
         <v>39</v>
       </c>
@@ -1418,10 +4334,10 @@
         <v>89</v>
       </c>
       <c r="E15" s="2">
-        <v>2609078.75</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+        <v>2613509.5</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" t="s">
         <v>39</v>
       </c>
@@ -1438,7 +4354,7 @@
         <v>1030150.125</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17">
       <c r="A17" t="s">
         <v>39</v>
       </c>
@@ -1455,7 +4371,7 @@
         <v>1354453.125</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18">
       <c r="A18" t="s">
         <v>39</v>
       </c>
@@ -1472,7 +4388,7 @@
         <v>4036646.25</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="19">
       <c r="A19" t="s">
         <v>39</v>
       </c>
@@ -1489,7 +4405,7 @@
         <v>436373.875</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="20">
       <c r="A20" t="s">
         <v>39</v>
       </c>
@@ -1506,7 +4422,7 @@
         <v>3733049.75</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="21">
       <c r="A21" t="s">
         <v>39</v>
       </c>
@@ -1523,7 +4439,7 @@
         <v>3870213.5</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="22">
       <c r="A22" t="s">
         <v>39</v>
       </c>
@@ -1531,7 +4447,7 @@
         <v>2022</v>
       </c>
       <c r="C22" t="s">
-        <v>62</v>
+        <v>125</v>
       </c>
       <c r="D22" t="s">
         <v>96</v>
@@ -1540,7 +4456,7 @@
         <v>16.301263809204102</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="23">
       <c r="A23" t="s">
         <v>39</v>
       </c>
@@ -1554,10 +4470,10 @@
         <v>97</v>
       </c>
       <c r="E23" s="2">
-        <v>8.361358642578125</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+        <v>8.3592615127563477</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" t="s">
         <v>39</v>
       </c>
@@ -1571,10 +4487,10 @@
         <v>98</v>
       </c>
       <c r="E24" s="2">
-        <v>10.658834457397461</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+        <v>10.650352478027344</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" t="s">
         <v>39</v>
       </c>
@@ -1588,10 +4504,10 @@
         <v>99</v>
       </c>
       <c r="E25" s="2">
-        <v>17.275327682495117</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+        <v>17.359308242797852</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" t="s">
         <v>39</v>
       </c>
@@ -1608,7 +4524,7 @@
         <v>12.662323951721191</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="27">
       <c r="A27" t="s">
         <v>39</v>
       </c>
@@ -1625,7 +4541,7 @@
         <v>13.721147537231445</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="28">
       <c r="A28" t="s">
         <v>39</v>
       </c>
@@ -1639,10 +4555,10 @@
         <v>102</v>
       </c>
       <c r="E28" s="2">
-        <v>12.1837158203125</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+        <v>12.179794311523438</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" t="s">
         <v>39</v>
       </c>
@@ -1656,10 +4572,10 @@
         <v>103</v>
       </c>
       <c r="E29" s="2">
-        <v>35.935928344726562</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+        <v>35.935928344726563</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" t="s">
         <v>39</v>
       </c>
@@ -1676,7 +4592,7 @@
         <v>30.482030868530273</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="31">
       <c r="A31" t="s">
         <v>39</v>
       </c>
@@ -1693,7 +4609,7 @@
         <v>20.005949020385742</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="32">
       <c r="A32" t="s">
         <v>39</v>
       </c>
@@ -1710,7 +4626,7 @@
         <v>31.673978805541992</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="33">
       <c r="A33" t="s">
         <v>39</v>
       </c>
@@ -1724,10 +4640,10 @@
         <v>107</v>
       </c>
       <c r="E33" s="2">
-        <v>35.630630493164062</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+        <v>35.630630493164063</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" t="s">
         <v>39</v>
       </c>
@@ -1742,6 +4658,4329 @@
       </c>
       <c r="E34" s="2">
         <v>20.934955596923828</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+  <dimension ref="A1:E253"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:E253"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="7.33203125" bestFit="true" customWidth="true"/>
+    <col min="2" max="2" width="11" bestFit="true" customWidth="true"/>
+    <col min="3" max="3" width="14.83203125" bestFit="true" customWidth="true"/>
+    <col min="4" max="4" width="5.1640625" bestFit="true" customWidth="true"/>
+    <col min="5" max="5" width="10.1640625" bestFit="true" customWidth="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D1" t="s">
+        <v>75</v>
+      </c>
+      <c r="E1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B2" s="2">
+        <v>2010</v>
+      </c>
+      <c r="C2" t="s">
+        <v>112</v>
+      </c>
+      <c r="D2" t="s">
+        <v>117</v>
+      </c>
+      <c r="E2" s="2">
+        <v>51825406</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B3" s="2">
+        <v>2010</v>
+      </c>
+      <c r="C3" t="s">
+        <v>113</v>
+      </c>
+      <c r="D3" t="s">
+        <v>118</v>
+      </c>
+      <c r="E3" s="2">
+        <v>93970006.5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B4" s="2">
+        <v>2010</v>
+      </c>
+      <c r="C4" t="s">
+        <v>114</v>
+      </c>
+      <c r="D4" t="s">
+        <v>119</v>
+      </c>
+      <c r="E4" s="2">
+        <v>6406569</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B5" s="2">
+        <v>2010</v>
+      </c>
+      <c r="C5" t="s">
+        <v>115</v>
+      </c>
+      <c r="D5" t="s">
+        <v>120</v>
+      </c>
+      <c r="E5" s="2">
+        <v>152201981.5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>39</v>
+      </c>
+      <c r="B6" s="2">
+        <v>2011</v>
+      </c>
+      <c r="C6" t="s">
+        <v>112</v>
+      </c>
+      <c r="D6" t="s">
+        <v>117</v>
+      </c>
+      <c r="E6" s="2">
+        <v>51579249.5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>39</v>
+      </c>
+      <c r="B7" s="2">
+        <v>2011</v>
+      </c>
+      <c r="C7" t="s">
+        <v>113</v>
+      </c>
+      <c r="D7" t="s">
+        <v>118</v>
+      </c>
+      <c r="E7" s="2">
+        <v>95340177.5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>39</v>
+      </c>
+      <c r="B8" s="2">
+        <v>2011</v>
+      </c>
+      <c r="C8" t="s">
+        <v>114</v>
+      </c>
+      <c r="D8" t="s">
+        <v>119</v>
+      </c>
+      <c r="E8" s="2">
+        <v>6671648.5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>39</v>
+      </c>
+      <c r="B9" s="2">
+        <v>2011</v>
+      </c>
+      <c r="C9" t="s">
+        <v>115</v>
+      </c>
+      <c r="D9" t="s">
+        <v>120</v>
+      </c>
+      <c r="E9" s="2">
+        <v>153591075.5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>39</v>
+      </c>
+      <c r="B10" s="2">
+        <v>2012</v>
+      </c>
+      <c r="C10" t="s">
+        <v>112</v>
+      </c>
+      <c r="D10" t="s">
+        <v>117</v>
+      </c>
+      <c r="E10" s="2">
+        <v>51214229.5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>39</v>
+      </c>
+      <c r="B11" s="2">
+        <v>2012</v>
+      </c>
+      <c r="C11" t="s">
+        <v>113</v>
+      </c>
+      <c r="D11" t="s">
+        <v>118</v>
+      </c>
+      <c r="E11" s="2">
+        <v>96894688.5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>39</v>
+      </c>
+      <c r="B12" s="2">
+        <v>2012</v>
+      </c>
+      <c r="C12" t="s">
+        <v>114</v>
+      </c>
+      <c r="D12" t="s">
+        <v>119</v>
+      </c>
+      <c r="E12" s="2">
+        <v>6961183.5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>39</v>
+      </c>
+      <c r="B13" s="2">
+        <v>2012</v>
+      </c>
+      <c r="C13" t="s">
+        <v>115</v>
+      </c>
+      <c r="D13" t="s">
+        <v>120</v>
+      </c>
+      <c r="E13" s="2">
+        <v>155070101.5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>39</v>
+      </c>
+      <c r="B14" s="2">
+        <v>2013</v>
+      </c>
+      <c r="C14" t="s">
+        <v>112</v>
+      </c>
+      <c r="D14" t="s">
+        <v>117</v>
+      </c>
+      <c r="E14" s="2">
+        <v>50753511.5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>39</v>
+      </c>
+      <c r="B15" s="2">
+        <v>2013</v>
+      </c>
+      <c r="C15" t="s">
+        <v>113</v>
+      </c>
+      <c r="D15" t="s">
+        <v>118</v>
+      </c>
+      <c r="E15" s="2">
+        <v>98536132.5</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>39</v>
+      </c>
+      <c r="B16" s="2">
+        <v>2013</v>
+      </c>
+      <c r="C16" t="s">
+        <v>114</v>
+      </c>
+      <c r="D16" t="s">
+        <v>119</v>
+      </c>
+      <c r="E16" s="2">
+        <v>7242496.5</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>39</v>
+      </c>
+      <c r="B17" s="2">
+        <v>2013</v>
+      </c>
+      <c r="C17" t="s">
+        <v>115</v>
+      </c>
+      <c r="D17" t="s">
+        <v>120</v>
+      </c>
+      <c r="E17" s="2">
+        <v>156532140.5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>39</v>
+      </c>
+      <c r="B18" s="2">
+        <v>2014</v>
+      </c>
+      <c r="C18" t="s">
+        <v>112</v>
+      </c>
+      <c r="D18" t="s">
+        <v>117</v>
+      </c>
+      <c r="E18" s="2">
+        <v>50242810.5</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>39</v>
+      </c>
+      <c r="B19" s="2">
+        <v>2014</v>
+      </c>
+      <c r="C19" t="s">
+        <v>113</v>
+      </c>
+      <c r="D19" t="s">
+        <v>118</v>
+      </c>
+      <c r="E19" s="2">
+        <v>100208409.5</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>39</v>
+      </c>
+      <c r="B20" s="2">
+        <v>2014</v>
+      </c>
+      <c r="C20" t="s">
+        <v>114</v>
+      </c>
+      <c r="D20" t="s">
+        <v>119</v>
+      </c>
+      <c r="E20" s="2">
+        <v>7513708.5</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>39</v>
+      </c>
+      <c r="B21" s="2">
+        <v>2014</v>
+      </c>
+      <c r="C21" t="s">
+        <v>115</v>
+      </c>
+      <c r="D21" t="s">
+        <v>120</v>
+      </c>
+      <c r="E21" s="2">
+        <v>157964928.5</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>39</v>
+      </c>
+      <c r="B22" s="2">
+        <v>2015</v>
+      </c>
+      <c r="C22" t="s">
+        <v>112</v>
+      </c>
+      <c r="D22" t="s">
+        <v>117</v>
+      </c>
+      <c r="E22" s="2">
+        <v>49699406</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>39</v>
+      </c>
+      <c r="B23" s="2">
+        <v>2015</v>
+      </c>
+      <c r="C23" t="s">
+        <v>113</v>
+      </c>
+      <c r="D23" t="s">
+        <v>118</v>
+      </c>
+      <c r="E23" s="2">
+        <v>101869851</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>39</v>
+      </c>
+      <c r="B24" s="2">
+        <v>2015</v>
+      </c>
+      <c r="C24" t="s">
+        <v>114</v>
+      </c>
+      <c r="D24" t="s">
+        <v>119</v>
+      </c>
+      <c r="E24" s="2">
+        <v>7813922</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>39</v>
+      </c>
+      <c r="B25" s="2">
+        <v>2015</v>
+      </c>
+      <c r="C25" t="s">
+        <v>115</v>
+      </c>
+      <c r="D25" t="s">
+        <v>120</v>
+      </c>
+      <c r="E25" s="2">
+        <v>159383179</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>39</v>
+      </c>
+      <c r="B26" s="2">
+        <v>2016</v>
+      </c>
+      <c r="C26" t="s">
+        <v>112</v>
+      </c>
+      <c r="D26" t="s">
+        <v>117</v>
+      </c>
+      <c r="E26" s="2">
+        <v>49153855.5</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>39</v>
+      </c>
+      <c r="B27" s="2">
+        <v>2016</v>
+      </c>
+      <c r="C27" t="s">
+        <v>113</v>
+      </c>
+      <c r="D27" t="s">
+        <v>118</v>
+      </c>
+      <c r="E27" s="2">
+        <v>103501312.5</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s">
+        <v>39</v>
+      </c>
+      <c r="B28" s="2">
+        <v>2016</v>
+      </c>
+      <c r="C28" t="s">
+        <v>114</v>
+      </c>
+      <c r="D28" t="s">
+        <v>119</v>
+      </c>
+      <c r="E28" s="2">
+        <v>8156764.5</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>39</v>
+      </c>
+      <c r="B29" s="2">
+        <v>2016</v>
+      </c>
+      <c r="C29" t="s">
+        <v>115</v>
+      </c>
+      <c r="D29" t="s">
+        <v>120</v>
+      </c>
+      <c r="E29" s="2">
+        <v>160811932.5</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s">
+        <v>39</v>
+      </c>
+      <c r="B30" s="2">
+        <v>2017</v>
+      </c>
+      <c r="C30" t="s">
+        <v>112</v>
+      </c>
+      <c r="D30" t="s">
+        <v>117</v>
+      </c>
+      <c r="E30" s="2">
+        <v>48779609.5</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
+        <v>39</v>
+      </c>
+      <c r="B31" s="2">
+        <v>2017</v>
+      </c>
+      <c r="C31" t="s">
+        <v>113</v>
+      </c>
+      <c r="D31" t="s">
+        <v>118</v>
+      </c>
+      <c r="E31" s="2">
+        <v>104877347.5</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s">
+        <v>39</v>
+      </c>
+      <c r="B32" s="2">
+        <v>2017</v>
+      </c>
+      <c r="C32" t="s">
+        <v>114</v>
+      </c>
+      <c r="D32" t="s">
+        <v>119</v>
+      </c>
+      <c r="E32" s="2">
+        <v>8529189.5</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s">
+        <v>39</v>
+      </c>
+      <c r="B33" s="2">
+        <v>2017</v>
+      </c>
+      <c r="C33" t="s">
+        <v>115</v>
+      </c>
+      <c r="D33" t="s">
+        <v>120</v>
+      </c>
+      <c r="E33" s="2">
+        <v>162186146.5</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s">
+        <v>39</v>
+      </c>
+      <c r="B34" s="2">
+        <v>2018</v>
+      </c>
+      <c r="C34" t="s">
+        <v>112</v>
+      </c>
+      <c r="D34" t="s">
+        <v>117</v>
+      </c>
+      <c r="E34" s="2">
+        <v>48639192</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s">
+        <v>39</v>
+      </c>
+      <c r="B35" s="2">
+        <v>2018</v>
+      </c>
+      <c r="C35" t="s">
+        <v>113</v>
+      </c>
+      <c r="D35" t="s">
+        <v>118</v>
+      </c>
+      <c r="E35" s="2">
+        <v>105958585</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s">
+        <v>39</v>
+      </c>
+      <c r="B36" s="2">
+        <v>2018</v>
+      </c>
+      <c r="C36" t="s">
+        <v>114</v>
+      </c>
+      <c r="D36" t="s">
+        <v>119</v>
+      </c>
+      <c r="E36" s="2">
+        <v>8925326.5</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s">
+        <v>39</v>
+      </c>
+      <c r="B37" s="2">
+        <v>2018</v>
+      </c>
+      <c r="C37" t="s">
+        <v>115</v>
+      </c>
+      <c r="D37" t="s">
+        <v>120</v>
+      </c>
+      <c r="E37" s="2">
+        <v>163523103.5</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s">
+        <v>39</v>
+      </c>
+      <c r="B38" s="2">
+        <v>2019</v>
+      </c>
+      <c r="C38" t="s">
+        <v>112</v>
+      </c>
+      <c r="D38" t="s">
+        <v>117</v>
+      </c>
+      <c r="E38" s="2">
+        <v>48610039</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s">
+        <v>39</v>
+      </c>
+      <c r="B39" s="2">
+        <v>2019</v>
+      </c>
+      <c r="C39" t="s">
+        <v>113</v>
+      </c>
+      <c r="D39" t="s">
+        <v>118</v>
+      </c>
+      <c r="E39" s="2">
+        <v>106964718</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s">
+        <v>39</v>
+      </c>
+      <c r="B40" s="2">
+        <v>2019</v>
+      </c>
+      <c r="C40" t="s">
+        <v>114</v>
+      </c>
+      <c r="D40" t="s">
+        <v>119</v>
+      </c>
+      <c r="E40" s="2">
+        <v>9338298</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s">
+        <v>39</v>
+      </c>
+      <c r="B41" s="2">
+        <v>2019</v>
+      </c>
+      <c r="C41" t="s">
+        <v>115</v>
+      </c>
+      <c r="D41" t="s">
+        <v>120</v>
+      </c>
+      <c r="E41" s="2">
+        <v>164913055</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s">
+        <v>39</v>
+      </c>
+      <c r="B42" s="2">
+        <v>2020</v>
+      </c>
+      <c r="C42" t="s">
+        <v>112</v>
+      </c>
+      <c r="D42" t="s">
+        <v>117</v>
+      </c>
+      <c r="E42" s="2">
+        <v>48656232</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s">
+        <v>39</v>
+      </c>
+      <c r="B43" s="2">
+        <v>2020</v>
+      </c>
+      <c r="C43" t="s">
+        <v>113</v>
+      </c>
+      <c r="D43" t="s">
+        <v>118</v>
+      </c>
+      <c r="E43" s="2">
+        <v>107938076.5</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s">
+        <v>39</v>
+      </c>
+      <c r="B44" s="2">
+        <v>2020</v>
+      </c>
+      <c r="C44" t="s">
+        <v>114</v>
+      </c>
+      <c r="D44" t="s">
+        <v>119</v>
+      </c>
+      <c r="E44" s="2">
+        <v>9703715.5</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s">
+        <v>39</v>
+      </c>
+      <c r="B45" s="2">
+        <v>2020</v>
+      </c>
+      <c r="C45" t="s">
+        <v>115</v>
+      </c>
+      <c r="D45" t="s">
+        <v>120</v>
+      </c>
+      <c r="E45" s="2">
+        <v>166298024</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s">
+        <v>39</v>
+      </c>
+      <c r="B46" s="2">
+        <v>2021</v>
+      </c>
+      <c r="C46" t="s">
+        <v>112</v>
+      </c>
+      <c r="D46" t="s">
+        <v>117</v>
+      </c>
+      <c r="E46" s="2">
+        <v>48745975</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s">
+        <v>39</v>
+      </c>
+      <c r="B47" s="2">
+        <v>2021</v>
+      </c>
+      <c r="C47" t="s">
+        <v>113</v>
+      </c>
+      <c r="D47" t="s">
+        <v>118</v>
+      </c>
+      <c r="E47" s="2">
+        <v>108897252.5</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s">
+        <v>39</v>
+      </c>
+      <c r="B48" s="2">
+        <v>2021</v>
+      </c>
+      <c r="C48" t="s">
+        <v>114</v>
+      </c>
+      <c r="D48" t="s">
+        <v>119</v>
+      </c>
+      <c r="E48" s="2">
+        <v>10015627</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s">
+        <v>39</v>
+      </c>
+      <c r="B49" s="2">
+        <v>2021</v>
+      </c>
+      <c r="C49" t="s">
+        <v>115</v>
+      </c>
+      <c r="D49" t="s">
+        <v>120</v>
+      </c>
+      <c r="E49" s="2">
+        <v>167658854.5</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s">
+        <v>39</v>
+      </c>
+      <c r="B50" s="2">
+        <v>2022</v>
+      </c>
+      <c r="C50" t="s">
+        <v>112</v>
+      </c>
+      <c r="D50" t="s">
+        <v>117</v>
+      </c>
+      <c r="E50" s="2">
+        <v>48732187.5</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s">
+        <v>39</v>
+      </c>
+      <c r="B51" s="2">
+        <v>2022</v>
+      </c>
+      <c r="C51" t="s">
+        <v>113</v>
+      </c>
+      <c r="D51" t="s">
+        <v>118</v>
+      </c>
+      <c r="E51" s="2">
+        <v>110260679.5</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="s">
+        <v>39</v>
+      </c>
+      <c r="B52" s="2">
+        <v>2022</v>
+      </c>
+      <c r="C52" t="s">
+        <v>114</v>
+      </c>
+      <c r="D52" t="s">
+        <v>119</v>
+      </c>
+      <c r="E52" s="2">
+        <v>10392030.5</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s">
+        <v>39</v>
+      </c>
+      <c r="B53" s="2">
+        <v>2022</v>
+      </c>
+      <c r="C53" t="s">
+        <v>115</v>
+      </c>
+      <c r="D53" t="s">
+        <v>120</v>
+      </c>
+      <c r="E53" s="2">
+        <v>169384897.5</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s">
+        <v>39</v>
+      </c>
+      <c r="B54" s="2">
+        <v>2023</v>
+      </c>
+      <c r="C54" t="s">
+        <v>112</v>
+      </c>
+      <c r="D54" t="s">
+        <v>117</v>
+      </c>
+      <c r="E54" s="2">
+        <v>48629551</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s">
+        <v>39</v>
+      </c>
+      <c r="B55" s="2">
+        <v>2023</v>
+      </c>
+      <c r="C55" t="s">
+        <v>113</v>
+      </c>
+      <c r="D55" t="s">
+        <v>118</v>
+      </c>
+      <c r="E55" s="2">
+        <v>111999785.5</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s">
+        <v>39</v>
+      </c>
+      <c r="B56" s="2">
+        <v>2023</v>
+      </c>
+      <c r="C56" t="s">
+        <v>114</v>
+      </c>
+      <c r="D56" t="s">
+        <v>119</v>
+      </c>
+      <c r="E56" s="2">
+        <v>10837653.5</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s">
+        <v>39</v>
+      </c>
+      <c r="B57" s="2">
+        <v>2023</v>
+      </c>
+      <c r="C57" t="s">
+        <v>115</v>
+      </c>
+      <c r="D57" t="s">
+        <v>120</v>
+      </c>
+      <c r="E57" s="2">
+        <v>171466990</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="s">
+        <v>39</v>
+      </c>
+      <c r="B58" s="2">
+        <v>2024</v>
+      </c>
+      <c r="C58" t="s">
+        <v>112</v>
+      </c>
+      <c r="D58" t="s">
+        <v>117</v>
+      </c>
+      <c r="E58" s="2">
+        <v>48578249.5</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="s">
+        <v>39</v>
+      </c>
+      <c r="B59" s="2">
+        <v>2024</v>
+      </c>
+      <c r="C59" t="s">
+        <v>113</v>
+      </c>
+      <c r="D59" t="s">
+        <v>118</v>
+      </c>
+      <c r="E59" s="2">
+        <v>113705228.5</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="s">
+        <v>39</v>
+      </c>
+      <c r="B60" s="2">
+        <v>2024</v>
+      </c>
+      <c r="C60" t="s">
+        <v>114</v>
+      </c>
+      <c r="D60" t="s">
+        <v>119</v>
+      </c>
+      <c r="E60" s="2">
+        <v>11278886</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="s">
+        <v>39</v>
+      </c>
+      <c r="B61" s="2">
+        <v>2024</v>
+      </c>
+      <c r="C61" t="s">
+        <v>115</v>
+      </c>
+      <c r="D61" t="s">
+        <v>120</v>
+      </c>
+      <c r="E61" s="2">
+        <v>173562364</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="s">
+        <v>39</v>
+      </c>
+      <c r="B62" s="2">
+        <v>2025</v>
+      </c>
+      <c r="C62" t="s">
+        <v>112</v>
+      </c>
+      <c r="D62" t="s">
+        <v>117</v>
+      </c>
+      <c r="E62" s="2">
+        <v>48569949</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="s">
+        <v>39</v>
+      </c>
+      <c r="B63" s="2">
+        <v>2025</v>
+      </c>
+      <c r="C63" t="s">
+        <v>113</v>
+      </c>
+      <c r="D63" t="s">
+        <v>118</v>
+      </c>
+      <c r="E63" s="2">
+        <v>115401404</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="s">
+        <v>39</v>
+      </c>
+      <c r="B64" s="2">
+        <v>2025</v>
+      </c>
+      <c r="C64" t="s">
+        <v>114</v>
+      </c>
+      <c r="D64" t="s">
+        <v>119</v>
+      </c>
+      <c r="E64" s="2">
+        <v>11715546.5</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="s">
+        <v>39</v>
+      </c>
+      <c r="B65" s="2">
+        <v>2025</v>
+      </c>
+      <c r="C65" t="s">
+        <v>115</v>
+      </c>
+      <c r="D65" t="s">
+        <v>120</v>
+      </c>
+      <c r="E65" s="2">
+        <v>175686899.5</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="s">
+        <v>39</v>
+      </c>
+      <c r="B66" s="2">
+        <v>2026</v>
+      </c>
+      <c r="C66" t="s">
+        <v>112</v>
+      </c>
+      <c r="D66" t="s">
+        <v>117</v>
+      </c>
+      <c r="E66" s="2">
+        <v>48593660.5</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="s">
+        <v>39</v>
+      </c>
+      <c r="B67" s="2">
+        <v>2026</v>
+      </c>
+      <c r="C67" t="s">
+        <v>113</v>
+      </c>
+      <c r="D67" t="s">
+        <v>118</v>
+      </c>
+      <c r="E67" s="2">
+        <v>117061314</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="s">
+        <v>39</v>
+      </c>
+      <c r="B68" s="2">
+        <v>2026</v>
+      </c>
+      <c r="C68" t="s">
+        <v>114</v>
+      </c>
+      <c r="D68" t="s">
+        <v>119</v>
+      </c>
+      <c r="E68" s="2">
+        <v>12163070</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="s">
+        <v>39</v>
+      </c>
+      <c r="B69" s="2">
+        <v>2026</v>
+      </c>
+      <c r="C69" t="s">
+        <v>115</v>
+      </c>
+      <c r="D69" t="s">
+        <v>120</v>
+      </c>
+      <c r="E69" s="2">
+        <v>177818044.5</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="s">
+        <v>39</v>
+      </c>
+      <c r="B70" s="2">
+        <v>2027</v>
+      </c>
+      <c r="C70" t="s">
+        <v>112</v>
+      </c>
+      <c r="D70" t="s">
+        <v>117</v>
+      </c>
+      <c r="E70" s="2">
+        <v>48645360</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="s">
+        <v>39</v>
+      </c>
+      <c r="B71" s="2">
+        <v>2027</v>
+      </c>
+      <c r="C71" t="s">
+        <v>113</v>
+      </c>
+      <c r="D71" t="s">
+        <v>118</v>
+      </c>
+      <c r="E71" s="2">
+        <v>118663717.5</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="s">
+        <v>39</v>
+      </c>
+      <c r="B72" s="2">
+        <v>2027</v>
+      </c>
+      <c r="C72" t="s">
+        <v>114</v>
+      </c>
+      <c r="D72" t="s">
+        <v>119</v>
+      </c>
+      <c r="E72" s="2">
+        <v>12621097.5</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="s">
+        <v>39</v>
+      </c>
+      <c r="B73" s="2">
+        <v>2027</v>
+      </c>
+      <c r="C73" t="s">
+        <v>115</v>
+      </c>
+      <c r="D73" t="s">
+        <v>120</v>
+      </c>
+      <c r="E73" s="2">
+        <v>179930175</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="s">
+        <v>39</v>
+      </c>
+      <c r="B74" s="2">
+        <v>2028</v>
+      </c>
+      <c r="C74" t="s">
+        <v>112</v>
+      </c>
+      <c r="D74" t="s">
+        <v>117</v>
+      </c>
+      <c r="E74" s="2">
+        <v>48717790.5</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="s">
+        <v>39</v>
+      </c>
+      <c r="B75" s="2">
+        <v>2028</v>
+      </c>
+      <c r="C75" t="s">
+        <v>113</v>
+      </c>
+      <c r="D75" t="s">
+        <v>118</v>
+      </c>
+      <c r="E75" s="2">
+        <v>120207386</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="s">
+        <v>39</v>
+      </c>
+      <c r="B76" s="2">
+        <v>2028</v>
+      </c>
+      <c r="C76" t="s">
+        <v>114</v>
+      </c>
+      <c r="D76" t="s">
+        <v>119</v>
+      </c>
+      <c r="E76" s="2">
+        <v>13089597</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="s">
+        <v>39</v>
+      </c>
+      <c r="B77" s="2">
+        <v>2028</v>
+      </c>
+      <c r="C77" t="s">
+        <v>115</v>
+      </c>
+      <c r="D77" t="s">
+        <v>120</v>
+      </c>
+      <c r="E77" s="2">
+        <v>182014773.5</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="s">
+        <v>39</v>
+      </c>
+      <c r="B78" s="2">
+        <v>2029</v>
+      </c>
+      <c r="C78" t="s">
+        <v>112</v>
+      </c>
+      <c r="D78" t="s">
+        <v>117</v>
+      </c>
+      <c r="E78" s="2">
+        <v>48797893.5</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="s">
+        <v>39</v>
+      </c>
+      <c r="B79" s="2">
+        <v>2029</v>
+      </c>
+      <c r="C79" t="s">
+        <v>113</v>
+      </c>
+      <c r="D79" t="s">
+        <v>118</v>
+      </c>
+      <c r="E79" s="2">
+        <v>121697394.5</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="s">
+        <v>39</v>
+      </c>
+      <c r="B80" s="2">
+        <v>2029</v>
+      </c>
+      <c r="C80" t="s">
+        <v>114</v>
+      </c>
+      <c r="D80" t="s">
+        <v>119</v>
+      </c>
+      <c r="E80" s="2">
+        <v>13569331.5</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="s">
+        <v>39</v>
+      </c>
+      <c r="B81" s="2">
+        <v>2029</v>
+      </c>
+      <c r="C81" t="s">
+        <v>115</v>
+      </c>
+      <c r="D81" t="s">
+        <v>120</v>
+      </c>
+      <c r="E81" s="2">
+        <v>184064619.5</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="s">
+        <v>39</v>
+      </c>
+      <c r="B82" s="2">
+        <v>2030</v>
+      </c>
+      <c r="C82" t="s">
+        <v>112</v>
+      </c>
+      <c r="D82" t="s">
+        <v>117</v>
+      </c>
+      <c r="E82" s="2">
+        <v>48867854</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="s">
+        <v>39</v>
+      </c>
+      <c r="B83" s="2">
+        <v>2030</v>
+      </c>
+      <c r="C83" t="s">
+        <v>113</v>
+      </c>
+      <c r="D83" t="s">
+        <v>118</v>
+      </c>
+      <c r="E83" s="2">
+        <v>123142654.5</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="s">
+        <v>39</v>
+      </c>
+      <c r="B84" s="2">
+        <v>2030</v>
+      </c>
+      <c r="C84" t="s">
+        <v>114</v>
+      </c>
+      <c r="D84" t="s">
+        <v>119</v>
+      </c>
+      <c r="E84" s="2">
+        <v>14061898</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="s">
+        <v>39</v>
+      </c>
+      <c r="B85" s="2">
+        <v>2030</v>
+      </c>
+      <c r="C85" t="s">
+        <v>115</v>
+      </c>
+      <c r="D85" t="s">
+        <v>120</v>
+      </c>
+      <c r="E85" s="2">
+        <v>186072406.5</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="s">
+        <v>110</v>
+      </c>
+      <c r="B86" s="2">
+        <v>2010</v>
+      </c>
+      <c r="C86" t="s">
+        <v>112</v>
+      </c>
+      <c r="D86" t="s">
+        <v>117</v>
+      </c>
+      <c r="E86" s="2">
+        <v>5307368.5</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="s">
+        <v>110</v>
+      </c>
+      <c r="B87" s="2">
+        <v>2010</v>
+      </c>
+      <c r="C87" t="s">
+        <v>113</v>
+      </c>
+      <c r="D87" t="s">
+        <v>118</v>
+      </c>
+      <c r="E87" s="2">
+        <v>14020983</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="s">
+        <v>110</v>
+      </c>
+      <c r="B88" s="2">
+        <v>2010</v>
+      </c>
+      <c r="C88" t="s">
+        <v>114</v>
+      </c>
+      <c r="D88" t="s">
+        <v>119</v>
+      </c>
+      <c r="E88" s="2">
+        <v>1550737.5</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="s">
+        <v>110</v>
+      </c>
+      <c r="B89" s="2">
+        <v>2010</v>
+      </c>
+      <c r="C89" t="s">
+        <v>115</v>
+      </c>
+      <c r="D89" t="s">
+        <v>120</v>
+      </c>
+      <c r="E89" s="2">
+        <v>20879089</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="s">
+        <v>110</v>
+      </c>
+      <c r="B90" s="2">
+        <v>2011</v>
+      </c>
+      <c r="C90" t="s">
+        <v>112</v>
+      </c>
+      <c r="D90" t="s">
+        <v>117</v>
+      </c>
+      <c r="E90" s="2">
+        <v>5318138.5</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="s">
+        <v>110</v>
+      </c>
+      <c r="B91" s="2">
+        <v>2011</v>
+      </c>
+      <c r="C91" t="s">
+        <v>113</v>
+      </c>
+      <c r="D91" t="s">
+        <v>118</v>
+      </c>
+      <c r="E91" s="2">
+        <v>14077404.5</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="s">
+        <v>110</v>
+      </c>
+      <c r="B92" s="2">
+        <v>2011</v>
+      </c>
+      <c r="C92" t="s">
+        <v>114</v>
+      </c>
+      <c r="D92" t="s">
+        <v>119</v>
+      </c>
+      <c r="E92" s="2">
+        <v>1613505</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="s">
+        <v>110</v>
+      </c>
+      <c r="B93" s="2">
+        <v>2011</v>
+      </c>
+      <c r="C93" t="s">
+        <v>115</v>
+      </c>
+      <c r="D93" t="s">
+        <v>120</v>
+      </c>
+      <c r="E93" s="2">
+        <v>21009048</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="s">
+        <v>110</v>
+      </c>
+      <c r="B94" s="2">
+        <v>2012</v>
+      </c>
+      <c r="C94" t="s">
+        <v>112</v>
+      </c>
+      <c r="D94" t="s">
+        <v>117</v>
+      </c>
+      <c r="E94" s="2">
+        <v>5330135</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="s">
+        <v>110</v>
+      </c>
+      <c r="B95" s="2">
+        <v>2012</v>
+      </c>
+      <c r="C95" t="s">
+        <v>113</v>
+      </c>
+      <c r="D95" t="s">
+        <v>118</v>
+      </c>
+      <c r="E95" s="2">
+        <v>14152031.5</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="s">
+        <v>110</v>
+      </c>
+      <c r="B96" s="2">
+        <v>2012</v>
+      </c>
+      <c r="C96" t="s">
+        <v>114</v>
+      </c>
+      <c r="D96" t="s">
+        <v>119</v>
+      </c>
+      <c r="E96" s="2">
+        <v>1687291.5</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="s">
+        <v>110</v>
+      </c>
+      <c r="B97" s="2">
+        <v>2012</v>
+      </c>
+      <c r="C97" t="s">
+        <v>115</v>
+      </c>
+      <c r="D97" t="s">
+        <v>120</v>
+      </c>
+      <c r="E97" s="2">
+        <v>21169458</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="s">
+        <v>110</v>
+      </c>
+      <c r="B98" s="2">
+        <v>2013</v>
+      </c>
+      <c r="C98" t="s">
+        <v>112</v>
+      </c>
+      <c r="D98" t="s">
+        <v>117</v>
+      </c>
+      <c r="E98" s="2">
+        <v>5345468.5</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="s">
+        <v>110</v>
+      </c>
+      <c r="B99" s="2">
+        <v>2013</v>
+      </c>
+      <c r="C99" t="s">
+        <v>113</v>
+      </c>
+      <c r="D99" t="s">
+        <v>118</v>
+      </c>
+      <c r="E99" s="2">
+        <v>14242213</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="s">
+        <v>110</v>
+      </c>
+      <c r="B100" s="2">
+        <v>2013</v>
+      </c>
+      <c r="C100" t="s">
+        <v>114</v>
+      </c>
+      <c r="D100" t="s">
+        <v>119</v>
+      </c>
+      <c r="E100" s="2">
+        <v>1771145.5</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="s">
+        <v>110</v>
+      </c>
+      <c r="B101" s="2">
+        <v>2013</v>
+      </c>
+      <c r="C101" t="s">
+        <v>115</v>
+      </c>
+      <c r="D101" t="s">
+        <v>120</v>
+      </c>
+      <c r="E101" s="2">
+        <v>21358827</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="s">
+        <v>110</v>
+      </c>
+      <c r="B102" s="2">
+        <v>2014</v>
+      </c>
+      <c r="C102" t="s">
+        <v>112</v>
+      </c>
+      <c r="D102" t="s">
+        <v>117</v>
+      </c>
+      <c r="E102" s="2">
+        <v>5359333</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="s">
+        <v>110</v>
+      </c>
+      <c r="B103" s="2">
+        <v>2014</v>
+      </c>
+      <c r="C103" t="s">
+        <v>113</v>
+      </c>
+      <c r="D103" t="s">
+        <v>118</v>
+      </c>
+      <c r="E103" s="2">
+        <v>14327354.5</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="s">
+        <v>110</v>
+      </c>
+      <c r="B104" s="2">
+        <v>2014</v>
+      </c>
+      <c r="C104" t="s">
+        <v>114</v>
+      </c>
+      <c r="D104" t="s">
+        <v>119</v>
+      </c>
+      <c r="E104" s="2">
+        <v>1860768.5</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="s">
+        <v>110</v>
+      </c>
+      <c r="B105" s="2">
+        <v>2014</v>
+      </c>
+      <c r="C105" t="s">
+        <v>115</v>
+      </c>
+      <c r="D105" t="s">
+        <v>120</v>
+      </c>
+      <c r="E105" s="2">
+        <v>21547456</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="s">
+        <v>110</v>
+      </c>
+      <c r="B106" s="2">
+        <v>2015</v>
+      </c>
+      <c r="C106" t="s">
+        <v>112</v>
+      </c>
+      <c r="D106" t="s">
+        <v>117</v>
+      </c>
+      <c r="E106" s="2">
+        <v>5365756</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="s">
+        <v>110</v>
+      </c>
+      <c r="B107" s="2">
+        <v>2015</v>
+      </c>
+      <c r="C107" t="s">
+        <v>113</v>
+      </c>
+      <c r="D107" t="s">
+        <v>118</v>
+      </c>
+      <c r="E107" s="2">
+        <v>14410572.5</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="s">
+        <v>110</v>
+      </c>
+      <c r="B108" s="2">
+        <v>2015</v>
+      </c>
+      <c r="C108" t="s">
+        <v>114</v>
+      </c>
+      <c r="D108" t="s">
+        <v>119</v>
+      </c>
+      <c r="E108" s="2">
+        <v>1953643</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="s">
+        <v>110</v>
+      </c>
+      <c r="B109" s="2">
+        <v>2015</v>
+      </c>
+      <c r="C109" t="s">
+        <v>115</v>
+      </c>
+      <c r="D109" t="s">
+        <v>120</v>
+      </c>
+      <c r="E109" s="2">
+        <v>21729971.5</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="s">
+        <v>110</v>
+      </c>
+      <c r="B110" s="2">
+        <v>2016</v>
+      </c>
+      <c r="C110" t="s">
+        <v>112</v>
+      </c>
+      <c r="D110" t="s">
+        <v>117</v>
+      </c>
+      <c r="E110" s="2">
+        <v>5363394</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="s">
+        <v>110</v>
+      </c>
+      <c r="B111" s="2">
+        <v>2016</v>
+      </c>
+      <c r="C111" t="s">
+        <v>113</v>
+      </c>
+      <c r="D111" t="s">
+        <v>118</v>
+      </c>
+      <c r="E111" s="2">
+        <v>14499705.5</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="s">
+        <v>110</v>
+      </c>
+      <c r="B112" s="2">
+        <v>2016</v>
+      </c>
+      <c r="C112" t="s">
+        <v>114</v>
+      </c>
+      <c r="D112" t="s">
+        <v>119</v>
+      </c>
+      <c r="E112" s="2">
+        <v>2047673</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="s">
+        <v>110</v>
+      </c>
+      <c r="B113" s="2">
+        <v>2016</v>
+      </c>
+      <c r="C113" t="s">
+        <v>115</v>
+      </c>
+      <c r="D113" t="s">
+        <v>120</v>
+      </c>
+      <c r="E113" s="2">
+        <v>21910772.5</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="s">
+        <v>110</v>
+      </c>
+      <c r="B114" s="2">
+        <v>2017</v>
+      </c>
+      <c r="C114" t="s">
+        <v>112</v>
+      </c>
+      <c r="D114" t="s">
+        <v>117</v>
+      </c>
+      <c r="E114" s="2">
+        <v>5351604</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="s">
+        <v>110</v>
+      </c>
+      <c r="B115" s="2">
+        <v>2017</v>
+      </c>
+      <c r="C115" t="s">
+        <v>113</v>
+      </c>
+      <c r="D115" t="s">
+        <v>118</v>
+      </c>
+      <c r="E115" s="2">
+        <v>14594823</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="s">
+        <v>110</v>
+      </c>
+      <c r="B116" s="2">
+        <v>2017</v>
+      </c>
+      <c r="C116" t="s">
+        <v>114</v>
+      </c>
+      <c r="D116" t="s">
+        <v>119</v>
+      </c>
+      <c r="E116" s="2">
+        <v>2141095</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="s">
+        <v>110</v>
+      </c>
+      <c r="B117" s="2">
+        <v>2017</v>
+      </c>
+      <c r="C117" t="s">
+        <v>115</v>
+      </c>
+      <c r="D117" t="s">
+        <v>120</v>
+      </c>
+      <c r="E117" s="2">
+        <v>22087522</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="s">
+        <v>110</v>
+      </c>
+      <c r="B118" s="2">
+        <v>2018</v>
+      </c>
+      <c r="C118" t="s">
+        <v>112</v>
+      </c>
+      <c r="D118" t="s">
+        <v>117</v>
+      </c>
+      <c r="E118" s="2">
+        <v>5330296</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="s">
+        <v>110</v>
+      </c>
+      <c r="B119" s="2">
+        <v>2018</v>
+      </c>
+      <c r="C119" t="s">
+        <v>113</v>
+      </c>
+      <c r="D119" t="s">
+        <v>118</v>
+      </c>
+      <c r="E119" s="2">
+        <v>14689505</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="s">
+        <v>110</v>
+      </c>
+      <c r="B120" s="2">
+        <v>2018</v>
+      </c>
+      <c r="C120" t="s">
+        <v>114</v>
+      </c>
+      <c r="D120" t="s">
+        <v>119</v>
+      </c>
+      <c r="E120" s="2">
+        <v>2233317</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="s">
+        <v>110</v>
+      </c>
+      <c r="B121" s="2">
+        <v>2018</v>
+      </c>
+      <c r="C121" t="s">
+        <v>115</v>
+      </c>
+      <c r="D121" t="s">
+        <v>120</v>
+      </c>
+      <c r="E121" s="2">
+        <v>22253118</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="s">
+        <v>110</v>
+      </c>
+      <c r="B122" s="2">
+        <v>2019</v>
+      </c>
+      <c r="C122" t="s">
+        <v>112</v>
+      </c>
+      <c r="D122" t="s">
+        <v>117</v>
+      </c>
+      <c r="E122" s="2">
+        <v>5301101</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="s">
+        <v>110</v>
+      </c>
+      <c r="B123" s="2">
+        <v>2019</v>
+      </c>
+      <c r="C123" t="s">
+        <v>113</v>
+      </c>
+      <c r="D123" t="s">
+        <v>118</v>
+      </c>
+      <c r="E123" s="2">
+        <v>14784252.5</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="s">
+        <v>110</v>
+      </c>
+      <c r="B124" s="2">
+        <v>2019</v>
+      </c>
+      <c r="C124" t="s">
+        <v>114</v>
+      </c>
+      <c r="D124" t="s">
+        <v>119</v>
+      </c>
+      <c r="E124" s="2">
+        <v>2325198</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="s">
+        <v>110</v>
+      </c>
+      <c r="B125" s="2">
+        <v>2019</v>
+      </c>
+      <c r="C125" t="s">
+        <v>115</v>
+      </c>
+      <c r="D125" t="s">
+        <v>120</v>
+      </c>
+      <c r="E125" s="2">
+        <v>22410551.5</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="s">
+        <v>110</v>
+      </c>
+      <c r="B126" s="2">
+        <v>2020</v>
+      </c>
+      <c r="C126" t="s">
+        <v>112</v>
+      </c>
+      <c r="D126" t="s">
+        <v>117</v>
+      </c>
+      <c r="E126" s="2">
+        <v>5265351</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="s">
+        <v>110</v>
+      </c>
+      <c r="B127" s="2">
+        <v>2020</v>
+      </c>
+      <c r="C127" t="s">
+        <v>113</v>
+      </c>
+      <c r="D127" t="s">
+        <v>118</v>
+      </c>
+      <c r="E127" s="2">
+        <v>14878798</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="s">
+        <v>110</v>
+      </c>
+      <c r="B128" s="2">
+        <v>2020</v>
+      </c>
+      <c r="C128" t="s">
+        <v>114</v>
+      </c>
+      <c r="D128" t="s">
+        <v>119</v>
+      </c>
+      <c r="E128" s="2">
+        <v>2417658</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="s">
+        <v>110</v>
+      </c>
+      <c r="B129" s="2">
+        <v>2020</v>
+      </c>
+      <c r="C129" t="s">
+        <v>115</v>
+      </c>
+      <c r="D129" t="s">
+        <v>120</v>
+      </c>
+      <c r="E129" s="2">
+        <v>22561807</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="s">
+        <v>110</v>
+      </c>
+      <c r="B130" s="2">
+        <v>2021</v>
+      </c>
+      <c r="C130" t="s">
+        <v>112</v>
+      </c>
+      <c r="D130" t="s">
+        <v>117</v>
+      </c>
+      <c r="E130" s="2">
+        <v>5224716</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="s">
+        <v>110</v>
+      </c>
+      <c r="B131" s="2">
+        <v>2021</v>
+      </c>
+      <c r="C131" t="s">
+        <v>113</v>
+      </c>
+      <c r="D131" t="s">
+        <v>118</v>
+      </c>
+      <c r="E131" s="2">
+        <v>14968253.5</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="s">
+        <v>110</v>
+      </c>
+      <c r="B132" s="2">
+        <v>2021</v>
+      </c>
+      <c r="C132" t="s">
+        <v>114</v>
+      </c>
+      <c r="D132" t="s">
+        <v>119</v>
+      </c>
+      <c r="E132" s="2">
+        <v>2507402.5</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="s">
+        <v>110</v>
+      </c>
+      <c r="B133" s="2">
+        <v>2021</v>
+      </c>
+      <c r="C133" t="s">
+        <v>115</v>
+      </c>
+      <c r="D133" t="s">
+        <v>120</v>
+      </c>
+      <c r="E133" s="2">
+        <v>22700372</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="s">
+        <v>110</v>
+      </c>
+      <c r="B134" s="2">
+        <v>2022</v>
+      </c>
+      <c r="C134" t="s">
+        <v>112</v>
+      </c>
+      <c r="D134" t="s">
+        <v>117</v>
+      </c>
+      <c r="E134" s="2">
+        <v>5181323</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="s">
+        <v>110</v>
+      </c>
+      <c r="B135" s="2">
+        <v>2022</v>
+      </c>
+      <c r="C135" t="s">
+        <v>113</v>
+      </c>
+      <c r="D135" t="s">
+        <v>118</v>
+      </c>
+      <c r="E135" s="2">
+        <v>15054467</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="s">
+        <v>110</v>
+      </c>
+      <c r="B136" s="2">
+        <v>2022</v>
+      </c>
+      <c r="C136" t="s">
+        <v>114</v>
+      </c>
+      <c r="D136" t="s">
+        <v>119</v>
+      </c>
+      <c r="E136" s="2">
+        <v>2599175</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="s">
+        <v>110</v>
+      </c>
+      <c r="B137" s="2">
+        <v>2022</v>
+      </c>
+      <c r="C137" t="s">
+        <v>115</v>
+      </c>
+      <c r="D137" t="s">
+        <v>120</v>
+      </c>
+      <c r="E137" s="2">
+        <v>22834965</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="s">
+        <v>110</v>
+      </c>
+      <c r="B138" s="2">
+        <v>2023</v>
+      </c>
+      <c r="C138" t="s">
+        <v>112</v>
+      </c>
+      <c r="D138" t="s">
+        <v>117</v>
+      </c>
+      <c r="E138" s="2">
+        <v>5136746</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="s">
+        <v>110</v>
+      </c>
+      <c r="B139" s="2">
+        <v>2023</v>
+      </c>
+      <c r="C139" t="s">
+        <v>113</v>
+      </c>
+      <c r="D139" t="s">
+        <v>118</v>
+      </c>
+      <c r="E139" s="2">
+        <v>15138299.5</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="s">
+        <v>110</v>
+      </c>
+      <c r="B140" s="2">
+        <v>2023</v>
+      </c>
+      <c r="C140" t="s">
+        <v>114</v>
+      </c>
+      <c r="D140" t="s">
+        <v>119</v>
+      </c>
+      <c r="E140" s="2">
+        <v>2696571.5</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="s">
+        <v>110</v>
+      </c>
+      <c r="B141" s="2">
+        <v>2023</v>
+      </c>
+      <c r="C141" t="s">
+        <v>115</v>
+      </c>
+      <c r="D141" t="s">
+        <v>120</v>
+      </c>
+      <c r="E141" s="2">
+        <v>22971617</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="s">
+        <v>110</v>
+      </c>
+      <c r="B142" s="2">
+        <v>2024</v>
+      </c>
+      <c r="C142" t="s">
+        <v>112</v>
+      </c>
+      <c r="D142" t="s">
+        <v>117</v>
+      </c>
+      <c r="E142" s="2">
+        <v>5089781.5</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="s">
+        <v>110</v>
+      </c>
+      <c r="B143" s="2">
+        <v>2024</v>
+      </c>
+      <c r="C143" t="s">
+        <v>113</v>
+      </c>
+      <c r="D143" t="s">
+        <v>118</v>
+      </c>
+      <c r="E143" s="2">
+        <v>15217341.5</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="s">
+        <v>110</v>
+      </c>
+      <c r="B144" s="2">
+        <v>2024</v>
+      </c>
+      <c r="C144" t="s">
+        <v>114</v>
+      </c>
+      <c r="D144" t="s">
+        <v>119</v>
+      </c>
+      <c r="E144" s="2">
+        <v>2796441.5</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="s">
+        <v>110</v>
+      </c>
+      <c r="B145" s="2">
+        <v>2024</v>
+      </c>
+      <c r="C145" t="s">
+        <v>115</v>
+      </c>
+      <c r="D145" t="s">
+        <v>120</v>
+      </c>
+      <c r="E145" s="2">
+        <v>23103564.5</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="s">
+        <v>110</v>
+      </c>
+      <c r="B146" s="2">
+        <v>2025</v>
+      </c>
+      <c r="C146" t="s">
+        <v>112</v>
+      </c>
+      <c r="D146" t="s">
+        <v>117</v>
+      </c>
+      <c r="E146" s="2">
+        <v>5040984.5</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="s">
+        <v>110</v>
+      </c>
+      <c r="B147" s="2">
+        <v>2025</v>
+      </c>
+      <c r="C147" t="s">
+        <v>113</v>
+      </c>
+      <c r="D147" t="s">
+        <v>118</v>
+      </c>
+      <c r="E147" s="2">
+        <v>15290676</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="s">
+        <v>110</v>
+      </c>
+      <c r="B148" s="2">
+        <v>2025</v>
+      </c>
+      <c r="C148" t="s">
+        <v>114</v>
+      </c>
+      <c r="D148" t="s">
+        <v>119</v>
+      </c>
+      <c r="E148" s="2">
+        <v>2897810</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="s">
+        <v>110</v>
+      </c>
+      <c r="B149" s="2">
+        <v>2025</v>
+      </c>
+      <c r="C149" t="s">
+        <v>115</v>
+      </c>
+      <c r="D149" t="s">
+        <v>120</v>
+      </c>
+      <c r="E149" s="2">
+        <v>23229470.5</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="s">
+        <v>110</v>
+      </c>
+      <c r="B150" s="2">
+        <v>2026</v>
+      </c>
+      <c r="C150" t="s">
+        <v>112</v>
+      </c>
+      <c r="D150" t="s">
+        <v>117</v>
+      </c>
+      <c r="E150" s="2">
+        <v>4993550</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="s">
+        <v>110</v>
+      </c>
+      <c r="B151" s="2">
+        <v>2026</v>
+      </c>
+      <c r="C151" t="s">
+        <v>113</v>
+      </c>
+      <c r="D151" t="s">
+        <v>118</v>
+      </c>
+      <c r="E151" s="2">
+        <v>15357163.5</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="s">
+        <v>110</v>
+      </c>
+      <c r="B152" s="2">
+        <v>2026</v>
+      </c>
+      <c r="C152" t="s">
+        <v>114</v>
+      </c>
+      <c r="D152" t="s">
+        <v>119</v>
+      </c>
+      <c r="E152" s="2">
+        <v>2997601.5</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="s">
+        <v>110</v>
+      </c>
+      <c r="B153" s="2">
+        <v>2026</v>
+      </c>
+      <c r="C153" t="s">
+        <v>115</v>
+      </c>
+      <c r="D153" t="s">
+        <v>120</v>
+      </c>
+      <c r="E153" s="2">
+        <v>23348315</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="s">
+        <v>110</v>
+      </c>
+      <c r="B154" s="2">
+        <v>2027</v>
+      </c>
+      <c r="C154" t="s">
+        <v>112</v>
+      </c>
+      <c r="D154" t="s">
+        <v>117</v>
+      </c>
+      <c r="E154" s="2">
+        <v>4945735</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="s">
+        <v>110</v>
+      </c>
+      <c r="B155" s="2">
+        <v>2027</v>
+      </c>
+      <c r="C155" t="s">
+        <v>113</v>
+      </c>
+      <c r="D155" t="s">
+        <v>118</v>
+      </c>
+      <c r="E155" s="2">
+        <v>15421106.5</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="s">
+        <v>110</v>
+      </c>
+      <c r="B156" s="2">
+        <v>2027</v>
+      </c>
+      <c r="C156" t="s">
+        <v>114</v>
+      </c>
+      <c r="D156" t="s">
+        <v>119</v>
+      </c>
+      <c r="E156" s="2">
+        <v>3094719</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="s">
+        <v>110</v>
+      </c>
+      <c r="B157" s="2">
+        <v>2027</v>
+      </c>
+      <c r="C157" t="s">
+        <v>115</v>
+      </c>
+      <c r="D157" t="s">
+        <v>120</v>
+      </c>
+      <c r="E157" s="2">
+        <v>23461560.5</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="s">
+        <v>110</v>
+      </c>
+      <c r="B158" s="2">
+        <v>2028</v>
+      </c>
+      <c r="C158" t="s">
+        <v>112</v>
+      </c>
+      <c r="D158" t="s">
+        <v>117</v>
+      </c>
+      <c r="E158" s="2">
+        <v>4895209</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="s">
+        <v>110</v>
+      </c>
+      <c r="B159" s="2">
+        <v>2028</v>
+      </c>
+      <c r="C159" t="s">
+        <v>113</v>
+      </c>
+      <c r="D159" t="s">
+        <v>118</v>
+      </c>
+      <c r="E159" s="2">
+        <v>15485231</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="s">
+        <v>110</v>
+      </c>
+      <c r="B160" s="2">
+        <v>2028</v>
+      </c>
+      <c r="C160" t="s">
+        <v>114</v>
+      </c>
+      <c r="D160" t="s">
+        <v>119</v>
+      </c>
+      <c r="E160" s="2">
+        <v>3188734.5</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="s">
+        <v>110</v>
+      </c>
+      <c r="B161" s="2">
+        <v>2028</v>
+      </c>
+      <c r="C161" t="s">
+        <v>115</v>
+      </c>
+      <c r="D161" t="s">
+        <v>120</v>
+      </c>
+      <c r="E161" s="2">
+        <v>23569174.5</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="s">
+        <v>110</v>
+      </c>
+      <c r="B162" s="2">
+        <v>2029</v>
+      </c>
+      <c r="C162" t="s">
+        <v>112</v>
+      </c>
+      <c r="D162" t="s">
+        <v>117</v>
+      </c>
+      <c r="E162" s="2">
+        <v>4846391.5</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="s">
+        <v>110</v>
+      </c>
+      <c r="B163" s="2">
+        <v>2029</v>
+      </c>
+      <c r="C163" t="s">
+        <v>113</v>
+      </c>
+      <c r="D163" t="s">
+        <v>118</v>
+      </c>
+      <c r="E163" s="2">
+        <v>15544230</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="s">
+        <v>110</v>
+      </c>
+      <c r="B164" s="2">
+        <v>2029</v>
+      </c>
+      <c r="C164" t="s">
+        <v>114</v>
+      </c>
+      <c r="D164" t="s">
+        <v>119</v>
+      </c>
+      <c r="E164" s="2">
+        <v>3280015.5</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="s">
+        <v>110</v>
+      </c>
+      <c r="B165" s="2">
+        <v>2029</v>
+      </c>
+      <c r="C165" t="s">
+        <v>115</v>
+      </c>
+      <c r="D165" t="s">
+        <v>120</v>
+      </c>
+      <c r="E165" s="2">
+        <v>23670637</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="s">
+        <v>110</v>
+      </c>
+      <c r="B166" s="2">
+        <v>2030</v>
+      </c>
+      <c r="C166" t="s">
+        <v>112</v>
+      </c>
+      <c r="D166" t="s">
+        <v>117</v>
+      </c>
+      <c r="E166" s="2">
+        <v>4804294.5</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="s">
+        <v>110</v>
+      </c>
+      <c r="B167" s="2">
+        <v>2030</v>
+      </c>
+      <c r="C167" t="s">
+        <v>113</v>
+      </c>
+      <c r="D167" t="s">
+        <v>118</v>
+      </c>
+      <c r="E167" s="2">
+        <v>15594421</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="s">
+        <v>110</v>
+      </c>
+      <c r="B168" s="2">
+        <v>2030</v>
+      </c>
+      <c r="C168" t="s">
+        <v>114</v>
+      </c>
+      <c r="D168" t="s">
+        <v>119</v>
+      </c>
+      <c r="E168" s="2">
+        <v>3369236.5</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="s">
+        <v>110</v>
+      </c>
+      <c r="B169" s="2">
+        <v>2030</v>
+      </c>
+      <c r="C169" t="s">
+        <v>115</v>
+      </c>
+      <c r="D169" t="s">
+        <v>120</v>
+      </c>
+      <c r="E169" s="2">
+        <v>23767952</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="s">
+        <v>111</v>
+      </c>
+      <c r="B170" s="2">
+        <v>2010</v>
+      </c>
+      <c r="C170" t="s">
+        <v>112</v>
+      </c>
+      <c r="D170" t="s">
+        <v>117</v>
+      </c>
+      <c r="E170" s="2">
+        <v>92595</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="s">
+        <v>111</v>
+      </c>
+      <c r="B171" s="2">
+        <v>2010</v>
+      </c>
+      <c r="C171" t="s">
+        <v>113</v>
+      </c>
+      <c r="D171" t="s">
+        <v>118</v>
+      </c>
+      <c r="E171" s="2">
+        <v>252164</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="s">
+        <v>111</v>
+      </c>
+      <c r="B172" s="2">
+        <v>2010</v>
+      </c>
+      <c r="C172" t="s">
+        <v>114</v>
+      </c>
+      <c r="D172" t="s">
+        <v>119</v>
+      </c>
+      <c r="E172" s="2">
+        <v>16033</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="s">
+        <v>111</v>
+      </c>
+      <c r="B173" s="2">
+        <v>2010</v>
+      </c>
+      <c r="C173" t="s">
+        <v>115</v>
+      </c>
+      <c r="D173" t="s">
+        <v>120</v>
+      </c>
+      <c r="E173" s="2">
+        <v>360792</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="s">
+        <v>111</v>
+      </c>
+      <c r="B174" s="2">
+        <v>2011</v>
+      </c>
+      <c r="C174" t="s">
+        <v>112</v>
+      </c>
+      <c r="D174" t="s">
+        <v>117</v>
+      </c>
+      <c r="E174" s="2">
+        <v>92909</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="s">
+        <v>111</v>
+      </c>
+      <c r="B175" s="2">
+        <v>2011</v>
+      </c>
+      <c r="C175" t="s">
+        <v>113</v>
+      </c>
+      <c r="D175" t="s">
+        <v>118</v>
+      </c>
+      <c r="E175" s="2">
+        <v>264489</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="s">
+        <v>111</v>
+      </c>
+      <c r="B176" s="2">
+        <v>2011</v>
+      </c>
+      <c r="C176" t="s">
+        <v>114</v>
+      </c>
+      <c r="D176" t="s">
+        <v>119</v>
+      </c>
+      <c r="E176" s="2">
+        <v>16276</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="s">
+        <v>111</v>
+      </c>
+      <c r="B177" s="2">
+        <v>2011</v>
+      </c>
+      <c r="C177" t="s">
+        <v>115</v>
+      </c>
+      <c r="D177" t="s">
+        <v>120</v>
+      </c>
+      <c r="E177" s="2">
+        <v>373674</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="s">
+        <v>111</v>
+      </c>
+      <c r="B178" s="2">
+        <v>2012</v>
+      </c>
+      <c r="C178" t="s">
+        <v>112</v>
+      </c>
+      <c r="D178" t="s">
+        <v>117</v>
+      </c>
+      <c r="E178" s="2">
+        <v>93898.5</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="s">
+        <v>111</v>
+      </c>
+      <c r="B179" s="2">
+        <v>2012</v>
+      </c>
+      <c r="C179" t="s">
+        <v>113</v>
+      </c>
+      <c r="D179" t="s">
+        <v>118</v>
+      </c>
+      <c r="E179" s="2">
+        <v>276430</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="s">
+        <v>111</v>
+      </c>
+      <c r="B180" s="2">
+        <v>2012</v>
+      </c>
+      <c r="C180" t="s">
+        <v>114</v>
+      </c>
+      <c r="D180" t="s">
+        <v>119</v>
+      </c>
+      <c r="E180" s="2">
+        <v>16489.5</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="s">
+        <v>111</v>
+      </c>
+      <c r="B181" s="2">
+        <v>2012</v>
+      </c>
+      <c r="C181" t="s">
+        <v>115</v>
+      </c>
+      <c r="D181" t="s">
+        <v>120</v>
+      </c>
+      <c r="E181" s="2">
+        <v>386818</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="s">
+        <v>111</v>
+      </c>
+      <c r="B182" s="2">
+        <v>2013</v>
+      </c>
+      <c r="C182" t="s">
+        <v>112</v>
+      </c>
+      <c r="D182" t="s">
+        <v>117</v>
+      </c>
+      <c r="E182" s="2">
+        <v>95422.5</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="s">
+        <v>111</v>
+      </c>
+      <c r="B183" s="2">
+        <v>2013</v>
+      </c>
+      <c r="C183" t="s">
+        <v>113</v>
+      </c>
+      <c r="D183" t="s">
+        <v>118</v>
+      </c>
+      <c r="E183" s="2">
+        <v>287942</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="s">
+        <v>111</v>
+      </c>
+      <c r="B184" s="2">
+        <v>2013</v>
+      </c>
+      <c r="C184" t="s">
+        <v>114</v>
+      </c>
+      <c r="D184" t="s">
+        <v>119</v>
+      </c>
+      <c r="E184" s="2">
+        <v>16706</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="s">
+        <v>111</v>
+      </c>
+      <c r="B185" s="2">
+        <v>2013</v>
+      </c>
+      <c r="C185" t="s">
+        <v>115</v>
+      </c>
+      <c r="D185" t="s">
+        <v>120</v>
+      </c>
+      <c r="E185" s="2">
+        <v>400070.5</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="s">
+        <v>111</v>
+      </c>
+      <c r="B186" s="2">
+        <v>2014</v>
+      </c>
+      <c r="C186" t="s">
+        <v>112</v>
+      </c>
+      <c r="D186" t="s">
+        <v>117</v>
+      </c>
+      <c r="E186" s="2">
+        <v>97319</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="s">
+        <v>111</v>
+      </c>
+      <c r="B187" s="2">
+        <v>2014</v>
+      </c>
+      <c r="C187" t="s">
+        <v>113</v>
+      </c>
+      <c r="D187" t="s">
+        <v>118</v>
+      </c>
+      <c r="E187" s="2">
+        <v>299348</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="s">
+        <v>111</v>
+      </c>
+      <c r="B188" s="2">
+        <v>2014</v>
+      </c>
+      <c r="C188" t="s">
+        <v>114</v>
+      </c>
+      <c r="D188" t="s">
+        <v>119</v>
+      </c>
+      <c r="E188" s="2">
+        <v>16950</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="s">
+        <v>111</v>
+      </c>
+      <c r="B189" s="2">
+        <v>2014</v>
+      </c>
+      <c r="C189" t="s">
+        <v>115</v>
+      </c>
+      <c r="D189" t="s">
+        <v>120</v>
+      </c>
+      <c r="E189" s="2">
+        <v>413617</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="s">
+        <v>111</v>
+      </c>
+      <c r="B190" s="2">
+        <v>2015</v>
+      </c>
+      <c r="C190" t="s">
+        <v>112</v>
+      </c>
+      <c r="D190" t="s">
+        <v>117</v>
+      </c>
+      <c r="E190" s="2">
+        <v>99375.5</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="s">
+        <v>111</v>
+      </c>
+      <c r="B191" s="2">
+        <v>2015</v>
+      </c>
+      <c r="C191" t="s">
+        <v>113</v>
+      </c>
+      <c r="D191" t="s">
+        <v>118</v>
+      </c>
+      <c r="E191" s="2">
+        <v>311589</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="s">
+        <v>111</v>
+      </c>
+      <c r="B192" s="2">
+        <v>2015</v>
+      </c>
+      <c r="C192" t="s">
+        <v>114</v>
+      </c>
+      <c r="D192" t="s">
+        <v>119</v>
+      </c>
+      <c r="E192" s="2">
+        <v>17189.5</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="s">
+        <v>111</v>
+      </c>
+      <c r="B193" s="2">
+        <v>2015</v>
+      </c>
+      <c r="C193" t="s">
+        <v>115</v>
+      </c>
+      <c r="D193" t="s">
+        <v>120</v>
+      </c>
+      <c r="E193" s="2">
+        <v>428154</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="s">
+        <v>111</v>
+      </c>
+      <c r="B194" s="2">
+        <v>2016</v>
+      </c>
+      <c r="C194" t="s">
+        <v>112</v>
+      </c>
+      <c r="D194" t="s">
+        <v>117</v>
+      </c>
+      <c r="E194" s="2">
+        <v>101283</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="s">
+        <v>111</v>
+      </c>
+      <c r="B195" s="2">
+        <v>2016</v>
+      </c>
+      <c r="C195" t="s">
+        <v>113</v>
+      </c>
+      <c r="D195" t="s">
+        <v>118</v>
+      </c>
+      <c r="E195" s="2">
+        <v>324593.5</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="s">
+        <v>111</v>
+      </c>
+      <c r="B196" s="2">
+        <v>2016</v>
+      </c>
+      <c r="C196" t="s">
+        <v>114</v>
+      </c>
+      <c r="D196" t="s">
+        <v>119</v>
+      </c>
+      <c r="E196" s="2">
+        <v>17431.5</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="s">
+        <v>111</v>
+      </c>
+      <c r="B197" s="2">
+        <v>2016</v>
+      </c>
+      <c r="C197" t="s">
+        <v>115</v>
+      </c>
+      <c r="D197" t="s">
+        <v>120</v>
+      </c>
+      <c r="E197" s="2">
+        <v>443308</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="s">
+        <v>111</v>
+      </c>
+      <c r="B198" s="2">
+        <v>2017</v>
+      </c>
+      <c r="C198" t="s">
+        <v>112</v>
+      </c>
+      <c r="D198" t="s">
+        <v>117</v>
+      </c>
+      <c r="E198" s="2">
+        <v>102945</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="s">
+        <v>111</v>
+      </c>
+      <c r="B199" s="2">
+        <v>2017</v>
+      </c>
+      <c r="C199" t="s">
+        <v>113</v>
+      </c>
+      <c r="D199" t="s">
+        <v>118</v>
+      </c>
+      <c r="E199" s="2">
+        <v>337617</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="s">
+        <v>111</v>
+      </c>
+      <c r="B200" s="2">
+        <v>2017</v>
+      </c>
+      <c r="C200" t="s">
+        <v>114</v>
+      </c>
+      <c r="D200" t="s">
+        <v>119</v>
+      </c>
+      <c r="E200" s="2">
+        <v>17725</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="s">
+        <v>111</v>
+      </c>
+      <c r="B201" s="2">
+        <v>2017</v>
+      </c>
+      <c r="C201" t="s">
+        <v>115</v>
+      </c>
+      <c r="D201" t="s">
+        <v>120</v>
+      </c>
+      <c r="E201" s="2">
+        <v>458287</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="s">
+        <v>111</v>
+      </c>
+      <c r="B202" s="2">
+        <v>2018</v>
+      </c>
+      <c r="C202" t="s">
+        <v>112</v>
+      </c>
+      <c r="D202" t="s">
+        <v>117</v>
+      </c>
+      <c r="E202" s="2">
+        <v>104419</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="s">
+        <v>111</v>
+      </c>
+      <c r="B203" s="2">
+        <v>2018</v>
+      </c>
+      <c r="C203" t="s">
+        <v>113</v>
+      </c>
+      <c r="D203" t="s">
+        <v>118</v>
+      </c>
+      <c r="E203" s="2">
+        <v>350552</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="s">
+        <v>111</v>
+      </c>
+      <c r="B204" s="2">
+        <v>2018</v>
+      </c>
+      <c r="C204" t="s">
+        <v>114</v>
+      </c>
+      <c r="D204" t="s">
+        <v>119</v>
+      </c>
+      <c r="E204" s="2">
+        <v>18127.5</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="s">
+        <v>111</v>
+      </c>
+      <c r="B205" s="2">
+        <v>2018</v>
+      </c>
+      <c r="C205" t="s">
+        <v>115</v>
+      </c>
+      <c r="D205" t="s">
+        <v>120</v>
+      </c>
+      <c r="E205" s="2">
+        <v>473098.5</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="s">
+        <v>111</v>
+      </c>
+      <c r="B206" s="2">
+        <v>2019</v>
+      </c>
+      <c r="C206" t="s">
+        <v>112</v>
+      </c>
+      <c r="D206" t="s">
+        <v>117</v>
+      </c>
+      <c r="E206" s="2">
+        <v>105693</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="s">
+        <v>111</v>
+      </c>
+      <c r="B207" s="2">
+        <v>2019</v>
+      </c>
+      <c r="C207" t="s">
+        <v>113</v>
+      </c>
+      <c r="D207" t="s">
+        <v>118</v>
+      </c>
+      <c r="E207" s="2">
+        <v>363344</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="s">
+        <v>111</v>
+      </c>
+      <c r="B208" s="2">
+        <v>2019</v>
+      </c>
+      <c r="C208" t="s">
+        <v>114</v>
+      </c>
+      <c r="D208" t="s">
+        <v>119</v>
+      </c>
+      <c r="E208" s="2">
+        <v>18694</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="s">
+        <v>111</v>
+      </c>
+      <c r="B209" s="2">
+        <v>2019</v>
+      </c>
+      <c r="C209" t="s">
+        <v>115</v>
+      </c>
+      <c r="D209" t="s">
+        <v>120</v>
+      </c>
+      <c r="E209" s="2">
+        <v>487731</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="s">
+        <v>111</v>
+      </c>
+      <c r="B210" s="2">
+        <v>2020</v>
+      </c>
+      <c r="C210" t="s">
+        <v>112</v>
+      </c>
+      <c r="D210" t="s">
+        <v>117</v>
+      </c>
+      <c r="E210" s="2">
+        <v>106666</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="s">
+        <v>111</v>
+      </c>
+      <c r="B211" s="2">
+        <v>2020</v>
+      </c>
+      <c r="C211" t="s">
+        <v>113</v>
+      </c>
+      <c r="D211" t="s">
+        <v>118</v>
+      </c>
+      <c r="E211" s="2">
+        <v>376022</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="s">
+        <v>111</v>
+      </c>
+      <c r="B212" s="2">
+        <v>2020</v>
+      </c>
+      <c r="C212" t="s">
+        <v>114</v>
+      </c>
+      <c r="D212" t="s">
+        <v>119</v>
+      </c>
+      <c r="E212" s="2">
+        <v>19430.5</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="s">
+        <v>111</v>
+      </c>
+      <c r="B213" s="2">
+        <v>2020</v>
+      </c>
+      <c r="C213" t="s">
+        <v>115</v>
+      </c>
+      <c r="D213" t="s">
+        <v>120</v>
+      </c>
+      <c r="E213" s="2">
+        <v>502118.5</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="s">
+        <v>111</v>
+      </c>
+      <c r="B214" s="2">
+        <v>2021</v>
+      </c>
+      <c r="C214" t="s">
+        <v>112</v>
+      </c>
+      <c r="D214" t="s">
+        <v>117</v>
+      </c>
+      <c r="E214" s="2">
+        <v>107192.5</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="s">
+        <v>111</v>
+      </c>
+      <c r="B215" s="2">
+        <v>2021</v>
+      </c>
+      <c r="C215" t="s">
+        <v>113</v>
+      </c>
+      <c r="D215" t="s">
+        <v>118</v>
+      </c>
+      <c r="E215" s="2">
+        <v>388687</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="s">
+        <v>111</v>
+      </c>
+      <c r="B216" s="2">
+        <v>2021</v>
+      </c>
+      <c r="C216" t="s">
+        <v>114</v>
+      </c>
+      <c r="D216" t="s">
+        <v>119</v>
+      </c>
+      <c r="E216" s="2">
+        <v>20274</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="s">
+        <v>111</v>
+      </c>
+      <c r="B217" s="2">
+        <v>2021</v>
+      </c>
+      <c r="C217" t="s">
+        <v>115</v>
+      </c>
+      <c r="D217" t="s">
+        <v>120</v>
+      </c>
+      <c r="E217" s="2">
+        <v>516153.5</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="s">
+        <v>111</v>
+      </c>
+      <c r="B218" s="2">
+        <v>2022</v>
+      </c>
+      <c r="C218" t="s">
+        <v>112</v>
+      </c>
+      <c r="D218" t="s">
+        <v>117</v>
+      </c>
+      <c r="E218" s="2">
+        <v>106825.5</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="s">
+        <v>111</v>
+      </c>
+      <c r="B219" s="2">
+        <v>2022</v>
+      </c>
+      <c r="C219" t="s">
+        <v>113</v>
+      </c>
+      <c r="D219" t="s">
+        <v>118</v>
+      </c>
+      <c r="E219" s="2">
+        <v>395889</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="s">
+        <v>111</v>
+      </c>
+      <c r="B220" s="2">
+        <v>2022</v>
+      </c>
+      <c r="C220" t="s">
+        <v>114</v>
+      </c>
+      <c r="D220" t="s">
+        <v>119</v>
+      </c>
+      <c r="E220" s="2">
+        <v>21392</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="s">
+        <v>111</v>
+      </c>
+      <c r="B221" s="2">
+        <v>2022</v>
+      </c>
+      <c r="C221" t="s">
+        <v>115</v>
+      </c>
+      <c r="D221" t="s">
+        <v>120</v>
+      </c>
+      <c r="E221" s="2">
+        <v>524106.5</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="s">
+        <v>111</v>
+      </c>
+      <c r="B222" s="2">
+        <v>2023</v>
+      </c>
+      <c r="C222" t="s">
+        <v>112</v>
+      </c>
+      <c r="D222" t="s">
+        <v>117</v>
+      </c>
+      <c r="E222" s="2">
+        <v>105456.5</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="s">
+        <v>111</v>
+      </c>
+      <c r="B223" s="2">
+        <v>2023</v>
+      </c>
+      <c r="C223" t="s">
+        <v>113</v>
+      </c>
+      <c r="D223" t="s">
+        <v>118</v>
+      </c>
+      <c r="E223" s="2">
+        <v>397682.5</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="s">
+        <v>111</v>
+      </c>
+      <c r="B224" s="2">
+        <v>2023</v>
+      </c>
+      <c r="C224" t="s">
+        <v>114</v>
+      </c>
+      <c r="D224" t="s">
+        <v>119</v>
+      </c>
+      <c r="E224" s="2">
+        <v>22855</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="s">
+        <v>111</v>
+      </c>
+      <c r="B225" s="2">
+        <v>2023</v>
+      </c>
+      <c r="C225" t="s">
+        <v>115</v>
+      </c>
+      <c r="D225" t="s">
+        <v>120</v>
+      </c>
+      <c r="E225" s="2">
+        <v>525994</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="s">
+        <v>111</v>
+      </c>
+      <c r="B226" s="2">
+        <v>2024</v>
+      </c>
+      <c r="C226" t="s">
+        <v>112</v>
+      </c>
+      <c r="D226" t="s">
+        <v>117</v>
+      </c>
+      <c r="E226" s="2">
+        <v>103406.5</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="s">
+        <v>111</v>
+      </c>
+      <c r="B227" s="2">
+        <v>2024</v>
+      </c>
+      <c r="C227" t="s">
+        <v>113</v>
+      </c>
+      <c r="D227" t="s">
+        <v>118</v>
+      </c>
+      <c r="E227" s="2">
+        <v>399901.5</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="s">
+        <v>111</v>
+      </c>
+      <c r="B228" s="2">
+        <v>2024</v>
+      </c>
+      <c r="C228" t="s">
+        <v>114</v>
+      </c>
+      <c r="D228" t="s">
+        <v>119</v>
+      </c>
+      <c r="E228" s="2">
+        <v>24491</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="s">
+        <v>111</v>
+      </c>
+      <c r="B229" s="2">
+        <v>2024</v>
+      </c>
+      <c r="C229" t="s">
+        <v>115</v>
+      </c>
+      <c r="D229" t="s">
+        <v>120</v>
+      </c>
+      <c r="E229" s="2">
+        <v>527799</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="s">
+        <v>111</v>
+      </c>
+      <c r="B230" s="2">
+        <v>2025</v>
+      </c>
+      <c r="C230" t="s">
+        <v>112</v>
+      </c>
+      <c r="D230" t="s">
+        <v>117</v>
+      </c>
+      <c r="E230" s="2">
+        <v>100832</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="s">
+        <v>111</v>
+      </c>
+      <c r="B231" s="2">
+        <v>2025</v>
+      </c>
+      <c r="C231" t="s">
+        <v>113</v>
+      </c>
+      <c r="D231" t="s">
+        <v>118</v>
+      </c>
+      <c r="E231" s="2">
+        <v>402581.5</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="s">
+        <v>111</v>
+      </c>
+      <c r="B232" s="2">
+        <v>2025</v>
+      </c>
+      <c r="C232" t="s">
+        <v>114</v>
+      </c>
+      <c r="D232" t="s">
+        <v>119</v>
+      </c>
+      <c r="E232" s="2">
+        <v>26262.5</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="s">
+        <v>111</v>
+      </c>
+      <c r="B233" s="2">
+        <v>2025</v>
+      </c>
+      <c r="C233" t="s">
+        <v>115</v>
+      </c>
+      <c r="D233" t="s">
+        <v>120</v>
+      </c>
+      <c r="E233" s="2">
+        <v>529676</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="s">
+        <v>111</v>
+      </c>
+      <c r="B234" s="2">
+        <v>2026</v>
+      </c>
+      <c r="C234" t="s">
+        <v>112</v>
+      </c>
+      <c r="D234" t="s">
+        <v>117</v>
+      </c>
+      <c r="E234" s="2">
+        <v>97937</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="s">
+        <v>111</v>
+      </c>
+      <c r="B235" s="2">
+        <v>2026</v>
+      </c>
+      <c r="C235" t="s">
+        <v>113</v>
+      </c>
+      <c r="D235" t="s">
+        <v>118</v>
+      </c>
+      <c r="E235" s="2">
+        <v>405456</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="s">
+        <v>111</v>
+      </c>
+      <c r="B236" s="2">
+        <v>2026</v>
+      </c>
+      <c r="C236" t="s">
+        <v>114</v>
+      </c>
+      <c r="D236" t="s">
+        <v>119</v>
+      </c>
+      <c r="E236" s="2">
+        <v>28124</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="s">
+        <v>111</v>
+      </c>
+      <c r="B237" s="2">
+        <v>2026</v>
+      </c>
+      <c r="C237" t="s">
+        <v>115</v>
+      </c>
+      <c r="D237" t="s">
+        <v>120</v>
+      </c>
+      <c r="E237" s="2">
+        <v>531517</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="s">
+        <v>111</v>
+      </c>
+      <c r="B238" s="2">
+        <v>2027</v>
+      </c>
+      <c r="C238" t="s">
+        <v>112</v>
+      </c>
+      <c r="D238" t="s">
+        <v>117</v>
+      </c>
+      <c r="E238" s="2">
+        <v>94936.5</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="s">
+        <v>111</v>
+      </c>
+      <c r="B239" s="2">
+        <v>2027</v>
+      </c>
+      <c r="C239" t="s">
+        <v>113</v>
+      </c>
+      <c r="D239" t="s">
+        <v>118</v>
+      </c>
+      <c r="E239" s="2">
+        <v>408466</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="s">
+        <v>111</v>
+      </c>
+      <c r="B240" s="2">
+        <v>2027</v>
+      </c>
+      <c r="C240" t="s">
+        <v>114</v>
+      </c>
+      <c r="D240" t="s">
+        <v>119</v>
+      </c>
+      <c r="E240" s="2">
+        <v>30028.5</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="s">
+        <v>111</v>
+      </c>
+      <c r="B241" s="2">
+        <v>2027</v>
+      </c>
+      <c r="C241" t="s">
+        <v>115</v>
+      </c>
+      <c r="D241" t="s">
+        <v>120</v>
+      </c>
+      <c r="E241" s="2">
+        <v>533431</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="s">
+        <v>111</v>
+      </c>
+      <c r="B242" s="2">
+        <v>2028</v>
+      </c>
+      <c r="C242" t="s">
+        <v>112</v>
+      </c>
+      <c r="D242" t="s">
+        <v>117</v>
+      </c>
+      <c r="E242" s="2">
+        <v>92009</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="s">
+        <v>111</v>
+      </c>
+      <c r="B243" s="2">
+        <v>2028</v>
+      </c>
+      <c r="C243" t="s">
+        <v>113</v>
+      </c>
+      <c r="D243" t="s">
+        <v>118</v>
+      </c>
+      <c r="E243" s="2">
+        <v>411516.5</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="s">
+        <v>111</v>
+      </c>
+      <c r="B244" s="2">
+        <v>2028</v>
+      </c>
+      <c r="C244" t="s">
+        <v>114</v>
+      </c>
+      <c r="D244" t="s">
+        <v>119</v>
+      </c>
+      <c r="E244" s="2">
+        <v>31968</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="s">
+        <v>111</v>
+      </c>
+      <c r="B245" s="2">
+        <v>2028</v>
+      </c>
+      <c r="C245" t="s">
+        <v>115</v>
+      </c>
+      <c r="D245" t="s">
+        <v>120</v>
+      </c>
+      <c r="E245" s="2">
+        <v>535493.5</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="s">
+        <v>111</v>
+      </c>
+      <c r="B246" s="2">
+        <v>2029</v>
+      </c>
+      <c r="C246" t="s">
+        <v>112</v>
+      </c>
+      <c r="D246" t="s">
+        <v>117</v>
+      </c>
+      <c r="E246" s="2">
+        <v>89227.5</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="s">
+        <v>111</v>
+      </c>
+      <c r="B247" s="2">
+        <v>2029</v>
+      </c>
+      <c r="C247" t="s">
+        <v>113</v>
+      </c>
+      <c r="D247" t="s">
+        <v>118</v>
+      </c>
+      <c r="E247" s="2">
+        <v>414389.5</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="s">
+        <v>111</v>
+      </c>
+      <c r="B248" s="2">
+        <v>2029</v>
+      </c>
+      <c r="C248" t="s">
+        <v>114</v>
+      </c>
+      <c r="D248" t="s">
+        <v>119</v>
+      </c>
+      <c r="E248" s="2">
+        <v>33953.5</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="s">
+        <v>111</v>
+      </c>
+      <c r="B249" s="2">
+        <v>2029</v>
+      </c>
+      <c r="C249" t="s">
+        <v>115</v>
+      </c>
+      <c r="D249" t="s">
+        <v>120</v>
+      </c>
+      <c r="E249" s="2">
+        <v>537570.5</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="s">
+        <v>111</v>
+      </c>
+      <c r="B250" s="2">
+        <v>2030</v>
+      </c>
+      <c r="C250" t="s">
+        <v>112</v>
+      </c>
+      <c r="D250" t="s">
+        <v>117</v>
+      </c>
+      <c r="E250" s="2">
+        <v>86612</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="s">
+        <v>111</v>
+      </c>
+      <c r="B251" s="2">
+        <v>2030</v>
+      </c>
+      <c r="C251" t="s">
+        <v>113</v>
+      </c>
+      <c r="D251" t="s">
+        <v>118</v>
+      </c>
+      <c r="E251" s="2">
+        <v>417043</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="s">
+        <v>111</v>
+      </c>
+      <c r="B252" s="2">
+        <v>2030</v>
+      </c>
+      <c r="C252" t="s">
+        <v>114</v>
+      </c>
+      <c r="D252" t="s">
+        <v>119</v>
+      </c>
+      <c r="E252" s="2">
+        <v>36012</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="s">
+        <v>111</v>
+      </c>
+      <c r="B253" s="2">
+        <v>2030</v>
+      </c>
+      <c r="C253" t="s">
+        <v>115</v>
+      </c>
+      <c r="D253" t="s">
+        <v>120</v>
+      </c>
+      <c r="E253" s="2">
+        <v>539667</v>
       </c>
     </row>
   </sheetData>

--- a/2024AM/Data/INPUT/Macro and elasticities/Working Input Elasticities.xlsx
+++ b/2024AM/Data/INPUT/Macro and elasticities/Working Input Elasticities.xlsx
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="5006" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="5214" uniqueCount="126">
   <si>
     <t>type_estimation</t>
   </si>
